--- a/data-files/OutExcel2.xlsx
+++ b/data-files/OutExcel2.xlsx
@@ -5,9 +5,10 @@
   <sheets>
     <sheet name="Defs" sheetId="1" r:id="rId1"/>
     <sheet name="Point Defs" sheetId="2" r:id="rId2"/>
-    <sheet name="Entries Base" sheetId="3" r:id="rId3"/>
+    <sheet name="Entry Base" sheetId="3" r:id="rId3"/>
     <sheet name="Entry Points" sheetId="4" r:id="rId4"/>
-    <sheet name="Tags" sheetId="5" r:id="rId5"/>
+    <sheet name="Tag Defs" sheetId="5" r:id="rId5"/>
+    <sheet name="Tags" sheetId="6" r:id="rId6"/>
   </sheets>
 </workbook>
 </file>
@@ -437,57 +438,57 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>lglrnj0x.0qa55</v>
+        <v>lgr0q1t4-3lil</v>
       </c>
       <c r="B2" t="str">
-        <v>2023-04-17T23:30:00.476</v>
+        <v>2023-04-21T15:42:45.553</v>
       </c>
       <c r="C2" t="str">
-        <v>2023-04-17T23:30:00.476</v>
-      </c>
-      <c r="D2" t="b">
-        <v>0</v>
+        <v>lgr0q1te</v>
+      </c>
+      <c r="D2" t="str">
+        <v>FALSE</v>
       </c>
       <c r="E2" t="str">
-        <v>0plpu</v>
+        <v>05a8</v>
       </c>
       <c r="F2" t="str">
-        <v>twooo</v>
+        <v>afree</v>
       </c>
       <c r="G2" t="str">
-        <v>2️⃣</v>
+        <v>3️⃣</v>
       </c>
       <c r="H2" t="str">
-        <v>now with a description</v>
+        <v>Edited with description!</v>
       </c>
       <c r="I2" t="str">
-        <v>WEEK</v>
+        <v>SECOND</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>lglrnj19.52rnu</v>
+        <v>lgr0q1te-5odh</v>
       </c>
       <c r="B3" t="str">
-        <v>2023-04-17T23:30:00.477</v>
+        <v>2023-04-21T15:42:45.554</v>
       </c>
       <c r="C3" t="str">
-        <v>2023-04-17T23:30:00.477</v>
-      </c>
-      <c r="D3" t="b">
-        <v>0</v>
+        <v>lgr0q1te</v>
+      </c>
+      <c r="D3" t="str">
+        <v>FALSE</v>
       </c>
       <c r="E3" t="str">
-        <v>490hh</v>
+        <v>7gor</v>
       </c>
       <c r="F3" t="str">
-        <v>four</v>
+        <v>Five</v>
       </c>
       <c r="G3" t="str">
-        <v>🕒</v>
+        <v>5️⃣</v>
       </c>
       <c r="H3" t="str">
-        <v>Set a description</v>
+        <v>not in first file, added to second</v>
       </c>
       <c r="I3" t="str">
         <v>SECOND</v>
@@ -502,7 +503,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -545,16 +546,54 @@
         <v>_format</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>lgr0q1te-9rqg</v>
+      </c>
+      <c r="B2" t="str">
+        <v>2023-04-21T15:42:45.555</v>
+      </c>
+      <c r="C2" t="str">
+        <v>lgr0q1tf</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" t="str">
+        <v>e0bq</v>
+      </c>
+      <c r="F2" t="str">
+        <v>0pc6</v>
+      </c>
+      <c r="G2" t="str">
+        <v>updated label</v>
+      </c>
+      <c r="H2" t="str">
+        <v>☝️</v>
+      </c>
+      <c r="I2" t="str">
+        <v>Set a description</v>
+      </c>
+      <c r="J2" t="str">
+        <v>BOOL</v>
+      </c>
+      <c r="K2" t="str">
+        <v>COUNT</v>
+      </c>
+      <c r="L2" t="str">
+        <v>TEXT</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L2"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -576,17 +615,103 @@
         <v>_did</v>
       </c>
       <c r="F1" t="str">
+        <v>_eid</v>
+      </c>
+      <c r="G1" t="str">
+        <v>_period</v>
+      </c>
+      <c r="H1" t="str">
         <v>_note</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>_uid</v>
+      </c>
+      <c r="B1" t="str">
+        <v>_created</v>
+      </c>
+      <c r="C1" t="str">
+        <v>_updated</v>
+      </c>
+      <c r="D1" t="str">
+        <v>_deleted</v>
+      </c>
+      <c r="E1" t="str">
+        <v>_did</v>
+      </c>
+      <c r="F1" t="str">
+        <v>_pid</v>
+      </c>
+      <c r="G1" t="str">
+        <v>_eid</v>
+      </c>
+      <c r="H1" t="str">
+        <v>_val</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:H1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>_uid</v>
+      </c>
+      <c r="B1" t="str">
+        <v>_created</v>
+      </c>
+      <c r="C1" t="str">
+        <v>_updated</v>
+      </c>
+      <c r="D1" t="str">
+        <v>_deleted</v>
+      </c>
+      <c r="E1" t="str">
+        <v>_tid</v>
+      </c>
+      <c r="F1" t="str">
+        <v>_lbl</v>
+      </c>
+      <c r="G1" t="str">
+        <v>_emoji</v>
+      </c>
+      <c r="H1" t="str">
+        <v>_desc</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:H1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G1"/>
   <sheetViews>
@@ -613,7 +738,7 @@
         <v>_pid</v>
       </c>
       <c r="G1" t="str">
-        <v>_val</v>
+        <v>tid</v>
       </c>
     </row>
   </sheetData>
@@ -621,38 +746,4 @@
     <ignoredError numberStoredAsText="1" sqref="A1:G1"/>
   </ignoredErrors>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>_uid</v>
-      </c>
-      <c r="B1" t="str">
-        <v>_created</v>
-      </c>
-      <c r="C1" t="str">
-        <v>_updated</v>
-      </c>
-      <c r="D1" t="str">
-        <v>_deleted</v>
-      </c>
-      <c r="E1" t="str">
-        <v>_tid</v>
-      </c>
-      <c r="F1" t="str">
-        <v>_lbl</v>
-      </c>
-    </row>
-  </sheetData>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F1"/>
-  </ignoredErrors>
-</worksheet>
 </file>
--- a/data-files/OutExcel2.xlsx
+++ b/data-files/OutExcel2.xlsx
@@ -402,7 +402,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -438,28 +438,28 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>lgr0q1t4-3lil</v>
+        <v>lgricx76-vz39</v>
       </c>
       <c r="B2" t="str">
-        <v>2023-04-21T15:42:45.553</v>
+        <v>2023-04-22T04:56:26.130Z</v>
       </c>
       <c r="C2" t="str">
-        <v>lgr0q1te</v>
+        <v>lgricx7u</v>
       </c>
       <c r="D2" t="str">
-        <v>FALSE</v>
+        <v>TRUE</v>
       </c>
       <c r="E2" t="str">
-        <v>05a8</v>
+        <v>0m7w</v>
       </c>
       <c r="F2" t="str">
-        <v>afree</v>
+        <v>defOne</v>
       </c>
       <c r="G2" t="str">
-        <v>3️⃣</v>
+        <v>1️⃣</v>
       </c>
       <c r="H2" t="str">
-        <v>Edited with description!</v>
+        <v>This is now inerited</v>
       </c>
       <c r="I2" t="str">
         <v>SECOND</v>
@@ -467,43 +467,101 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>lgr0q1te-5odh</v>
+        <v>lgricx76-0eyz</v>
       </c>
       <c r="B3" t="str">
-        <v>2023-04-21T15:42:45.554</v>
+        <v>2023-04-22T04:56:26.130Z</v>
       </c>
       <c r="C3" t="str">
-        <v>lgr0q1te</v>
+        <v>lgricx76</v>
       </c>
       <c r="D3" t="str">
         <v>FALSE</v>
       </c>
       <c r="E3" t="str">
-        <v>7gor</v>
+        <v>ay7l</v>
       </c>
       <c r="F3" t="str">
-        <v>Five</v>
+        <v>TWO</v>
       </c>
       <c r="G3" t="str">
-        <v>5️⃣</v>
+        <v>2️⃣</v>
       </c>
       <c r="H3" t="str">
-        <v>not in first file, added to second</v>
+        <v>Scoped at an **hour**, cause why not have that option?</v>
       </c>
       <c r="I3" t="str">
+        <v>HOUR</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>lgricx76-2x1k</v>
+      </c>
+      <c r="B4" t="str">
+        <v>2023-04-22T04:56:26.130Z</v>
+      </c>
+      <c r="C4" t="str">
+        <v>lgricx76</v>
+      </c>
+      <c r="D4" t="str">
+        <v>FALSE</v>
+      </c>
+      <c r="E4" t="str">
+        <v>05a8</v>
+      </c>
+      <c r="F4" t="str">
+        <v>FREE</v>
+      </c>
+      <c r="G4" t="str">
+        <v>3️⃣</v>
+      </c>
+      <c r="H4" t="str">
+        <v>Set a description</v>
+      </c>
+      <c r="I4" t="str">
+        <v>DAY</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>lgricx7u-0a55</v>
+      </c>
+      <c r="B5" t="str">
+        <v>2023-04-22T04:56:26.130Z</v>
+      </c>
+      <c r="C5" t="str">
+        <v>lgricx7u</v>
+      </c>
+      <c r="D5" t="str">
+        <v>FALSE</v>
+      </c>
+      <c r="E5" t="str">
+        <v>0m7w</v>
+      </c>
+      <c r="F5" t="str">
+        <v>One Relabeled</v>
+      </c>
+      <c r="G5" t="str">
+        <v>1️⃣</v>
+      </c>
+      <c r="H5" t="str">
+        <v>This is now inerited</v>
+      </c>
+      <c r="I5" t="str">
         <v>SECOND</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I5"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -548,34 +606,34 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>lgr0q1te-9rqg</v>
+        <v>lgricx76-4umk</v>
       </c>
       <c r="B2" t="str">
-        <v>2023-04-21T15:42:45.555</v>
+        <v>2023-04-22T04:56:26.130Z</v>
       </c>
       <c r="C2" t="str">
-        <v>lgr0q1tf</v>
+        <v>lgricx76</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
       </c>
       <c r="E2" t="str">
-        <v>e0bq</v>
+        <v>05a8</v>
       </c>
       <c r="F2" t="str">
-        <v>0pc6</v>
+        <v>slse</v>
       </c>
       <c r="G2" t="str">
-        <v>updated label</v>
+        <v>Free Item</v>
       </c>
       <c r="H2" t="str">
-        <v>☝️</v>
+        <v>🆓</v>
       </c>
       <c r="I2" t="str">
         <v>Set a description</v>
       </c>
       <c r="J2" t="str">
-        <v>BOOL</v>
+        <v>TEXT</v>
       </c>
       <c r="K2" t="str">
         <v>COUNT</v>
@@ -584,16 +642,92 @@
         <v>TEXT</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>lgricx76-q5uq</v>
+      </c>
+      <c r="B3" t="str">
+        <v>2023-04-22T04:56:26.130Z</v>
+      </c>
+      <c r="C3" t="str">
+        <v>lgricx76</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" t="str">
+        <v>ay7l</v>
+      </c>
+      <c r="F3" t="str">
+        <v>0pc6</v>
+      </c>
+      <c r="G3" t="str">
+        <v>Numeric Thing</v>
+      </c>
+      <c r="H3" t="str">
+        <v>#️⃣</v>
+      </c>
+      <c r="I3" t="str">
+        <v>Set a description</v>
+      </c>
+      <c r="J3" t="str">
+        <v>NUM</v>
+      </c>
+      <c r="K3" t="str">
+        <v>COUNT</v>
+      </c>
+      <c r="L3" t="str">
+        <v>TEXT</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>lgricx76-0oaa</v>
+      </c>
+      <c r="B4" t="str">
+        <v>2023-04-22T04:56:26.130Z</v>
+      </c>
+      <c r="C4" t="str">
+        <v>lgricx76</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" t="str">
+        <v>ay7l</v>
+      </c>
+      <c r="F4" t="str">
+        <v>0tb7</v>
+      </c>
+      <c r="G4" t="str">
+        <v>Boolean Thing</v>
+      </c>
+      <c r="H4" t="str">
+        <v>👍</v>
+      </c>
+      <c r="I4" t="str">
+        <v>Set a description</v>
+      </c>
+      <c r="J4" t="str">
+        <v>BOOL</v>
+      </c>
+      <c r="K4" t="str">
+        <v>COUNT</v>
+      </c>
+      <c r="L4" t="str">
+        <v>TEXT</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L4"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -624,16 +758,68 @@
         <v>_note</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>lgricx76-u0ju</v>
+      </c>
+      <c r="B2" t="str">
+        <v>2023-04-22T04:56:26.130Z</v>
+      </c>
+      <c r="C2" t="str">
+        <v>lgricx76</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" t="str">
+        <v>ay7l</v>
+      </c>
+      <c r="F2" t="str">
+        <v>lgricx7k-08al</v>
+      </c>
+      <c r="G2" t="str">
+        <v>2023-04-21T23</v>
+      </c>
+      <c r="H2" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>lgricx7l-071b</v>
+      </c>
+      <c r="B3" t="str">
+        <v>2023-04-22T04:56:26.145Z</v>
+      </c>
+      <c r="C3" t="str">
+        <v>lgricx7l</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" t="str">
+        <v>0m7w</v>
+      </c>
+      <c r="F3" t="str">
+        <v>lgricx7l-sk3s</v>
+      </c>
+      <c r="G3" t="str">
+        <v>2023-04-21T23:56:26</v>
+      </c>
+      <c r="H3" t="str">
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H3"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -664,9 +850,61 @@
         <v>_val</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>lgricx7l-6whk</v>
+      </c>
+      <c r="B2" t="str">
+        <v>2023-04-22T04:56:26.145Z</v>
+      </c>
+      <c r="C2" t="str">
+        <v>lgricx7l</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" t="str">
+        <v>ay7l</v>
+      </c>
+      <c r="F2" t="str">
+        <v>0tb7</v>
+      </c>
+      <c r="G2" t="str">
+        <v>lgricx7k-08al</v>
+      </c>
+      <c r="H2" t="str">
+        <v>false</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>lgricx7l-1q1l</v>
+      </c>
+      <c r="B3" t="str">
+        <v>2023-04-22T04:56:26.145Z</v>
+      </c>
+      <c r="C3" t="str">
+        <v>lgricx7l</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" t="str">
+        <v>ay7l</v>
+      </c>
+      <c r="F3" t="str">
+        <v>0pc6</v>
+      </c>
+      <c r="G3" t="str">
+        <v>lgricx7k-08al</v>
+      </c>
+      <c r="H3" t="str">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H3"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/data-files/OutExcel2.xlsx
+++ b/data-files/OutExcel2.xlsx
@@ -438,13 +438,13 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>lgricx76-vz39</v>
+        <v>lgs4l68f-wupv</v>
       </c>
       <c r="B2" t="str">
-        <v>2023-04-22T04:56:26.130Z</v>
+        <v>2023-04-22T15:18:42.639Z</v>
       </c>
       <c r="C2" t="str">
-        <v>lgricx7u</v>
+        <v>lgs4l690</v>
       </c>
       <c r="D2" t="str">
         <v>TRUE</v>
@@ -467,13 +467,13 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>lgricx76-0eyz</v>
+        <v>lgs4l68g-jlfh</v>
       </c>
       <c r="B3" t="str">
-        <v>2023-04-22T04:56:26.130Z</v>
+        <v>2023-04-22T15:18:42.640Z</v>
       </c>
       <c r="C3" t="str">
-        <v>lgricx76</v>
+        <v>lgs4l68g</v>
       </c>
       <c r="D3" t="str">
         <v>FALSE</v>
@@ -496,13 +496,13 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>lgricx76-2x1k</v>
+        <v>lgs4l68g-095d</v>
       </c>
       <c r="B4" t="str">
-        <v>2023-04-22T04:56:26.130Z</v>
+        <v>2023-04-22T15:18:42.640Z</v>
       </c>
       <c r="C4" t="str">
-        <v>lgricx76</v>
+        <v>lgs4l68g</v>
       </c>
       <c r="D4" t="str">
         <v>FALSE</v>
@@ -525,13 +525,13 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>lgricx7u-0a55</v>
+        <v>lgs4l690-0isn</v>
       </c>
       <c r="B5" t="str">
-        <v>2023-04-22T04:56:26.130Z</v>
+        <v>2023-04-22T15:18:42.639Z</v>
       </c>
       <c r="C5" t="str">
-        <v>lgricx7u</v>
+        <v>lgs4l690</v>
       </c>
       <c r="D5" t="str">
         <v>FALSE</v>
@@ -561,7 +561,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -600,19 +600,16 @@
       <c r="K1" t="str">
         <v>_rollup</v>
       </c>
-      <c r="L1" t="str">
-        <v>_format</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>lgricx76-4umk</v>
+        <v>lgs4l68g-0qsw</v>
       </c>
       <c r="B2" t="str">
-        <v>2023-04-22T04:56:26.130Z</v>
+        <v>2023-04-22T15:18:42.640Z</v>
       </c>
       <c r="C2" t="str">
-        <v>lgricx76</v>
+        <v>lgs4l68g</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
@@ -621,7 +618,7 @@
         <v>05a8</v>
       </c>
       <c r="F2" t="str">
-        <v>slse</v>
+        <v>ats6</v>
       </c>
       <c r="G2" t="str">
         <v>Free Item</v>
@@ -638,19 +635,16 @@
       <c r="K2" t="str">
         <v>COUNT</v>
       </c>
-      <c r="L2" t="str">
-        <v>TEXT</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>lgricx76-q5uq</v>
+        <v>lgs4l68g-mj7s</v>
       </c>
       <c r="B3" t="str">
-        <v>2023-04-22T04:56:26.130Z</v>
+        <v>2023-04-22T15:18:42.640Z</v>
       </c>
       <c r="C3" t="str">
-        <v>lgricx76</v>
+        <v>lgs4l68g</v>
       </c>
       <c r="D3" t="b">
         <v>0</v>
@@ -676,22 +670,19 @@
       <c r="K3" t="str">
         <v>COUNT</v>
       </c>
-      <c r="L3" t="str">
-        <v>TEXT</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>lgricx76-0oaa</v>
+        <v>lgs4l68g-hvoj</v>
       </c>
       <c r="B4" t="str">
-        <v>2023-04-22T04:56:26.130Z</v>
+        <v>2023-04-22T15:18:42.640Z</v>
       </c>
       <c r="C4" t="str">
-        <v>lgricx76</v>
+        <v>lgs4l690</v>
       </c>
       <c r="D4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="str">
         <v>ay7l</v>
@@ -706,7 +697,7 @@
         <v>👍</v>
       </c>
       <c r="I4" t="str">
-        <v>Set a description</v>
+        <v>Orig desc</v>
       </c>
       <c r="J4" t="str">
         <v>BOOL</v>
@@ -714,20 +705,52 @@
       <c r="K4" t="str">
         <v>COUNT</v>
       </c>
-      <c r="L4" t="str">
-        <v>TEXT</v>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>lgs4l690-9zv4e</v>
+      </c>
+      <c r="B5" t="str">
+        <v>2023-04-22T15:18:42.640Z</v>
+      </c>
+      <c r="C5" t="str">
+        <v>lgs4l690</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" t="str">
+        <v>ay7l</v>
+      </c>
+      <c r="F5" t="str">
+        <v>0tb7</v>
+      </c>
+      <c r="G5" t="str">
+        <v>Changed Label</v>
+      </c>
+      <c r="H5" t="str">
+        <v>👍</v>
+      </c>
+      <c r="I5" t="str">
+        <v>Orig desc</v>
+      </c>
+      <c r="J5" t="str">
+        <v>BOOL</v>
+      </c>
+      <c r="K5" t="str">
+        <v>COUNT</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K5"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -760,16 +783,16 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>lgricx76-u0ju</v>
+        <v>lgs4l68g-0f7a</v>
       </c>
       <c r="B2" t="str">
-        <v>2023-04-22T04:56:26.130Z</v>
+        <v>2023-04-22T15:18:42.640Z</v>
       </c>
       <c r="C2" t="str">
-        <v>lgricx76</v>
+        <v>lgs4l690</v>
       </c>
       <c r="D2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="str">
         <v>ay7l</v>
@@ -778,21 +801,21 @@
         <v>lgricx7k-08al</v>
       </c>
       <c r="G2" t="str">
-        <v>2023-04-21T23</v>
+        <v>2023-04-22T06</v>
       </c>
       <c r="H2" t="str">
-        <v/>
+        <v>Orig note</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>lgricx7l-071b</v>
+        <v>lgs4l68h-13pq</v>
       </c>
       <c r="B3" t="str">
-        <v>2023-04-22T04:56:26.145Z</v>
+        <v>2023-04-22T15:18:42.641Z</v>
       </c>
       <c r="C3" t="str">
-        <v>lgricx7l</v>
+        <v>lgs4l68h</v>
       </c>
       <c r="D3" t="b">
         <v>0</v>
@@ -801,25 +824,51 @@
         <v>0m7w</v>
       </c>
       <c r="F3" t="str">
-        <v>lgricx7l-sk3s</v>
+        <v>lgs4l68s-gttg</v>
       </c>
       <c r="G3" t="str">
-        <v>2023-04-21T23:56:26</v>
+        <v>2023-04-22T10:18:42</v>
       </c>
       <c r="H3" t="str">
         <v/>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>lgs4l690-uvob</v>
+      </c>
+      <c r="B4" t="str">
+        <v>2023-04-22T15:18:42.640Z</v>
+      </c>
+      <c r="C4" t="str">
+        <v>lgs4l690</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" t="str">
+        <v>ay7l</v>
+      </c>
+      <c r="F4" t="str">
+        <v>lgricx7k-08al</v>
+      </c>
+      <c r="G4" t="str">
+        <v>2023-04-22T06</v>
+      </c>
+      <c r="H4" t="str">
+        <v>Updated noted</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H4"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -852,13 +901,13 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>lgricx7l-6whk</v>
+        <v>lgs4l68h-w50n</v>
       </c>
       <c r="B2" t="str">
-        <v>2023-04-22T04:56:26.145Z</v>
+        <v>2023-04-22T15:18:42.641Z</v>
       </c>
       <c r="C2" t="str">
-        <v>lgricx7l</v>
+        <v>lgs4l68h</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
@@ -878,16 +927,16 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>lgricx7l-1q1l</v>
+        <v>lgs4l68h-1bns</v>
       </c>
       <c r="B3" t="str">
-        <v>2023-04-22T04:56:26.145Z</v>
+        <v>2023-04-22T15:18:42.641Z</v>
       </c>
       <c r="C3" t="str">
-        <v>lgricx7l</v>
+        <v>lgs4l9m5</v>
       </c>
       <c r="D3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="str">
         <v>ay7l</v>
@@ -902,9 +951,35 @@
         <v>5</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>lgs4l690-06yr</v>
+      </c>
+      <c r="B4" t="str">
+        <v>2023-04-22T15:18:42.641Z</v>
+      </c>
+      <c r="C4" t="str">
+        <v>lgs4l690</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" t="str">
+        <v>ay7l</v>
+      </c>
+      <c r="F4" t="str">
+        <v>0pc6</v>
+      </c>
+      <c r="G4" t="str">
+        <v>lgricx7k-08al</v>
+      </c>
+      <c r="H4" t="str">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H4"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/data-files/OutExcel2.xlsx
+++ b/data-files/OutExcel2.xlsx
@@ -438,16 +438,16 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>lgs4l68f-wupv</v>
+        <v>lgs5e3pj-elk6</v>
       </c>
       <c r="B2" t="str">
-        <v>2023-04-22T15:18:42.639Z</v>
+        <v>2023-04-22T15:41:12.391Z</v>
       </c>
       <c r="C2" t="str">
-        <v>lgs4l690</v>
+        <v>lgs5e3pj</v>
       </c>
       <c r="D2" t="str">
-        <v>TRUE</v>
+        <v>FALSE</v>
       </c>
       <c r="E2" t="str">
         <v>0m7w</v>
@@ -467,16 +467,16 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>lgs4l68g-jlfh</v>
+        <v>lgs5e3pj-6tewf</v>
       </c>
       <c r="B3" t="str">
-        <v>2023-04-22T15:18:42.640Z</v>
+        <v>2023-04-22T15:41:12.391Z</v>
       </c>
       <c r="C3" t="str">
-        <v>lgs4l68g</v>
+        <v>lgs5e3q3</v>
       </c>
       <c r="D3" t="str">
-        <v>FALSE</v>
+        <v>TRUE</v>
       </c>
       <c r="E3" t="str">
         <v>ay7l</v>
@@ -496,13 +496,13 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>lgs4l68g-095d</v>
+        <v>lgs5e3pj-1ve7</v>
       </c>
       <c r="B4" t="str">
-        <v>2023-04-22T15:18:42.640Z</v>
+        <v>2023-04-22T15:41:12.391Z</v>
       </c>
       <c r="C4" t="str">
-        <v>lgs4l68g</v>
+        <v>lgs5e3pj</v>
       </c>
       <c r="D4" t="str">
         <v>FALSE</v>
@@ -525,31 +525,31 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>lgs4l690-0isn</v>
+        <v>lgs5e3q3-04qv</v>
       </c>
       <c r="B5" t="str">
-        <v>2023-04-22T15:18:42.639Z</v>
+        <v>2023-04-22T15:41:12.391Z</v>
       </c>
       <c r="C5" t="str">
-        <v>lgs4l690</v>
+        <v>lgs5e3q3</v>
       </c>
       <c r="D5" t="str">
         <v>FALSE</v>
       </c>
       <c r="E5" t="str">
-        <v>0m7w</v>
+        <v>ay7l</v>
       </c>
       <c r="F5" t="str">
-        <v>One Relabeled</v>
+        <v>Two Relabeled</v>
       </c>
       <c r="G5" t="str">
-        <v>1️⃣</v>
+        <v>2️⃣</v>
       </c>
       <c r="H5" t="str">
-        <v>This is now inerited</v>
+        <v>Scoped at an **hour**, cause why not have that option?</v>
       </c>
       <c r="I5" t="str">
-        <v>SECOND</v>
+        <v>HOUR</v>
       </c>
     </row>
   </sheetData>
@@ -561,7 +561,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -603,13 +603,13 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>lgs4l68g-0qsw</v>
+        <v>lgs5e3pk-0cjl</v>
       </c>
       <c r="B2" t="str">
-        <v>2023-04-22T15:18:42.640Z</v>
+        <v>2023-04-22T15:41:12.392Z</v>
       </c>
       <c r="C2" t="str">
-        <v>lgs4l68g</v>
+        <v>lgs5e3pk</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
@@ -618,7 +618,7 @@
         <v>05a8</v>
       </c>
       <c r="F2" t="str">
-        <v>ats6</v>
+        <v>0eze</v>
       </c>
       <c r="G2" t="str">
         <v>Free Item</v>
@@ -638,16 +638,16 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>lgs4l68g-mj7s</v>
+        <v>lgs5e3pk-d89q</v>
       </c>
       <c r="B3" t="str">
-        <v>2023-04-22T15:18:42.640Z</v>
+        <v>2023-04-22T15:41:12.392Z</v>
       </c>
       <c r="C3" t="str">
-        <v>lgs4l68g</v>
+        <v>lgs5e3q3</v>
       </c>
       <c r="D3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="str">
         <v>ay7l</v>
@@ -673,13 +673,13 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>lgs4l68g-hvoj</v>
+        <v>lgs5e3pk-0kt2</v>
       </c>
       <c r="B4" t="str">
-        <v>2023-04-22T15:18:42.640Z</v>
+        <v>2023-04-22T15:41:12.392Z</v>
       </c>
       <c r="C4" t="str">
-        <v>lgs4l690</v>
+        <v>lgs5e3q3</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
@@ -708,13 +708,13 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>lgs4l690-9zv4e</v>
+        <v>lgs5e3q3-3s9h</v>
       </c>
       <c r="B5" t="str">
-        <v>2023-04-22T15:18:42.640Z</v>
+        <v>2023-04-22T15:41:12.392Z</v>
       </c>
       <c r="C5" t="str">
-        <v>lgs4l690</v>
+        <v>lgs5e3q3</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
@@ -723,27 +723,62 @@
         <v>ay7l</v>
       </c>
       <c r="F5" t="str">
-        <v>0tb7</v>
+        <v>0pc6</v>
       </c>
       <c r="G5" t="str">
-        <v>Changed Label</v>
+        <v>Test Relabel</v>
       </c>
       <c r="H5" t="str">
-        <v>👍</v>
+        <v>#️⃣</v>
       </c>
       <c r="I5" t="str">
-        <v>Orig desc</v>
+        <v>Set a description</v>
       </c>
       <c r="J5" t="str">
-        <v>BOOL</v>
+        <v>NUM</v>
       </c>
       <c r="K5" t="str">
         <v>COUNT</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>lgs5e3q3-xdhk</v>
+      </c>
+      <c r="B6" t="str">
+        <v>2023-04-22T15:41:12.392Z</v>
+      </c>
+      <c r="C6" t="str">
+        <v>lgs5e3q3</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" t="str">
+        <v>ay7l</v>
+      </c>
+      <c r="F6" t="str">
+        <v>0tb7</v>
+      </c>
+      <c r="G6" t="str">
+        <v>Boolean Thing</v>
+      </c>
+      <c r="H6" t="str">
+        <v>👎</v>
+      </c>
+      <c r="I6" t="str">
+        <v>Orig desc</v>
+      </c>
+      <c r="J6" t="str">
+        <v>BOOL</v>
+      </c>
+      <c r="K6" t="str">
+        <v>COUNT</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K6"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -783,13 +818,13 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>lgs4l68g-0f7a</v>
+        <v>lgs5e3pk-ust9</v>
       </c>
       <c r="B2" t="str">
-        <v>2023-04-22T15:18:42.640Z</v>
+        <v>2023-04-22T15:41:12.392Z</v>
       </c>
       <c r="C2" t="str">
-        <v>lgs4l690</v>
+        <v>lgs5e3q3</v>
       </c>
       <c r="D2" t="b">
         <v>1</v>
@@ -809,13 +844,13 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>lgs4l68h-13pq</v>
+        <v>lgs5e3pk-euus</v>
       </c>
       <c r="B3" t="str">
-        <v>2023-04-22T15:18:42.641Z</v>
+        <v>2023-04-22T15:41:12.392Z</v>
       </c>
       <c r="C3" t="str">
-        <v>lgs4l68h</v>
+        <v>lgs5e3pk</v>
       </c>
       <c r="D3" t="b">
         <v>0</v>
@@ -824,10 +859,10 @@
         <v>0m7w</v>
       </c>
       <c r="F3" t="str">
-        <v>lgs4l68s-gttg</v>
+        <v>lgs5e3pv-5ph5n</v>
       </c>
       <c r="G3" t="str">
-        <v>2023-04-22T10:18:42</v>
+        <v>2023-04-22T10:41:12</v>
       </c>
       <c r="H3" t="str">
         <v/>
@@ -835,13 +870,13 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>lgs4l690-uvob</v>
+        <v>lgs5e3q3-0jn9</v>
       </c>
       <c r="B4" t="str">
-        <v>2023-04-22T15:18:42.640Z</v>
+        <v>2023-04-22T15:41:12.392Z</v>
       </c>
       <c r="C4" t="str">
-        <v>lgs4l690</v>
+        <v>lgs5e3q3</v>
       </c>
       <c r="D4" t="b">
         <v>0</v>
@@ -868,7 +903,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -901,16 +936,16 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>lgs4l68h-w50n</v>
+        <v>lgs5e3pk-00bg</v>
       </c>
       <c r="B2" t="str">
-        <v>2023-04-22T15:18:42.641Z</v>
+        <v>2023-04-22T15:41:12.392Z</v>
       </c>
       <c r="C2" t="str">
-        <v>lgs4l68h</v>
+        <v>lgs5e3q3</v>
       </c>
       <c r="D2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="str">
         <v>ay7l</v>
@@ -927,13 +962,13 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>lgs4l68h-1bns</v>
+        <v>lgs5e3pk-5gq2</v>
       </c>
       <c r="B3" t="str">
-        <v>2023-04-22T15:18:42.641Z</v>
+        <v>2023-04-22T15:41:12.392Z</v>
       </c>
       <c r="C3" t="str">
-        <v>lgs4l9m5</v>
+        <v>lgs5e3q3</v>
       </c>
       <c r="D3" t="b">
         <v>1</v>
@@ -953,13 +988,13 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>lgs4l690-06yr</v>
+        <v>lgs5e3q3-0y6e</v>
       </c>
       <c r="B4" t="str">
-        <v>2023-04-22T15:18:42.641Z</v>
+        <v>2023-04-22T15:41:12.392Z</v>
       </c>
       <c r="C4" t="str">
-        <v>lgs4l690</v>
+        <v>lgs5e3q3</v>
       </c>
       <c r="D4" t="b">
         <v>0</v>
@@ -968,18 +1003,44 @@
         <v>ay7l</v>
       </c>
       <c r="F4" t="str">
-        <v>0pc6</v>
+        <v>0tb7</v>
       </c>
       <c r="G4" t="str">
         <v>lgricx7k-08al</v>
       </c>
       <c r="H4" t="str">
+        <v>true</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>lgs5e3q3-065z</v>
+      </c>
+      <c r="B5" t="str">
+        <v>2023-04-22T15:41:12.392Z</v>
+      </c>
+      <c r="C5" t="str">
+        <v>lgs5e3q3</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" t="str">
+        <v>ay7l</v>
+      </c>
+      <c r="F5" t="str">
+        <v>0pc6</v>
+      </c>
+      <c r="G5" t="str">
+        <v>lgricx7k-08al</v>
+      </c>
+      <c r="H5" t="str">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H5"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/data-files/OutExcel2.xlsx
+++ b/data-files/OutExcel2.xlsx
@@ -438,13 +438,13 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>lgs5e3pj-elk6</v>
+        <v>lgs8j8fo-06px</v>
       </c>
       <c r="B2" t="str">
-        <v>2023-04-22T15:41:12.391Z</v>
+        <v>2023-04-22T17:09:10.644Z</v>
       </c>
       <c r="C2" t="str">
-        <v>lgs5e3pj</v>
+        <v>lgs8j8fo</v>
       </c>
       <c r="D2" t="str">
         <v>FALSE</v>
@@ -467,13 +467,13 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>lgs5e3pj-6tewf</v>
+        <v>lgs8j8fo-0oj7</v>
       </c>
       <c r="B3" t="str">
-        <v>2023-04-22T15:41:12.391Z</v>
+        <v>2023-04-22T17:09:10.644Z</v>
       </c>
       <c r="C3" t="str">
-        <v>lgs5e3q3</v>
+        <v>lgs8j8g8</v>
       </c>
       <c r="D3" t="str">
         <v>TRUE</v>
@@ -496,13 +496,13 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>lgs5e3pj-1ve7</v>
+        <v>lgs8j8fo-03ay</v>
       </c>
       <c r="B4" t="str">
-        <v>2023-04-22T15:41:12.391Z</v>
+        <v>2023-04-22T17:09:10.644Z</v>
       </c>
       <c r="C4" t="str">
-        <v>lgs5e3pj</v>
+        <v>lgs8j8fo</v>
       </c>
       <c r="D4" t="str">
         <v>FALSE</v>
@@ -525,13 +525,13 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>lgs5e3q3-04qv</v>
+        <v>lgs8j8g8-03n9</v>
       </c>
       <c r="B5" t="str">
-        <v>2023-04-22T15:41:12.391Z</v>
+        <v>2023-04-22T17:09:10.644Z</v>
       </c>
       <c r="C5" t="str">
-        <v>lgs5e3q3</v>
+        <v>lgs8j8g8</v>
       </c>
       <c r="D5" t="str">
         <v>FALSE</v>
@@ -561,7 +561,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -603,69 +603,69 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>lgs5e3pk-0cjl</v>
+        <v>lgs8j8fo-pjps</v>
       </c>
       <c r="B2" t="str">
-        <v>2023-04-22T15:41:12.392Z</v>
+        <v>2023-04-22T17:09:10.644Z</v>
       </c>
       <c r="C2" t="str">
-        <v>lgs5e3pk</v>
+        <v>lgs8j8fo</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
       </c>
       <c r="E2" t="str">
-        <v>05a8</v>
+        <v>0m7w</v>
       </c>
       <c r="F2" t="str">
-        <v>0eze</v>
+        <v>8esq</v>
       </c>
       <c r="G2" t="str">
-        <v>Free Item</v>
+        <v>Select Test</v>
       </c>
       <c r="H2" t="str">
-        <v>🆓</v>
+        <v>⛏️</v>
       </c>
       <c r="I2" t="str">
-        <v>Set a description</v>
+        <v>For testing selects</v>
       </c>
       <c r="J2" t="str">
-        <v>TEXT</v>
+        <v>SELECT</v>
       </c>
       <c r="K2" t="str">
-        <v>COUNT</v>
+        <v>COUNTOFEACH</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>lgs5e3pk-d89q</v>
+        <v>lgs8j8fo-27z6i</v>
       </c>
       <c r="B3" t="str">
-        <v>2023-04-22T15:41:12.392Z</v>
+        <v>2023-04-22T17:09:10.644Z</v>
       </c>
       <c r="C3" t="str">
-        <v>lgs5e3q3</v>
+        <v>lgs8j8fo</v>
       </c>
       <c r="D3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="str">
-        <v>ay7l</v>
+        <v>05a8</v>
       </c>
       <c r="F3" t="str">
-        <v>0pc6</v>
+        <v>1vb5</v>
       </c>
       <c r="G3" t="str">
-        <v>Numeric Thing</v>
+        <v>Free Item</v>
       </c>
       <c r="H3" t="str">
-        <v>#️⃣</v>
+        <v>🆓</v>
       </c>
       <c r="I3" t="str">
         <v>Set a description</v>
       </c>
       <c r="J3" t="str">
-        <v>NUM</v>
+        <v>TEXT</v>
       </c>
       <c r="K3" t="str">
         <v>COUNT</v>
@@ -673,13 +673,13 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>lgs5e3pk-0kt2</v>
+        <v>lgs8j8fo-62i6</v>
       </c>
       <c r="B4" t="str">
-        <v>2023-04-22T15:41:12.392Z</v>
+        <v>2023-04-22T17:09:10.644Z</v>
       </c>
       <c r="C4" t="str">
-        <v>lgs5e3q3</v>
+        <v>lgs8j8g8</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
@@ -688,54 +688,54 @@
         <v>ay7l</v>
       </c>
       <c r="F4" t="str">
-        <v>0tb7</v>
+        <v>0pc6</v>
       </c>
       <c r="G4" t="str">
-        <v>Boolean Thing</v>
+        <v>Numeric Thing</v>
       </c>
       <c r="H4" t="str">
-        <v>👍</v>
+        <v>#️⃣</v>
       </c>
       <c r="I4" t="str">
-        <v>Orig desc</v>
+        <v>Set a description</v>
       </c>
       <c r="J4" t="str">
-        <v>BOOL</v>
+        <v>NUM</v>
       </c>
       <c r="K4" t="str">
-        <v>COUNT</v>
+        <v>AVERAGE</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>lgs5e3q3-3s9h</v>
+        <v>lgs8j8fo-nljl</v>
       </c>
       <c r="B5" t="str">
-        <v>2023-04-22T15:41:12.392Z</v>
+        <v>2023-04-22T17:09:10.644Z</v>
       </c>
       <c r="C5" t="str">
-        <v>lgs5e3q3</v>
+        <v>lgs8j8g8</v>
       </c>
       <c r="D5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="str">
         <v>ay7l</v>
       </c>
       <c r="F5" t="str">
-        <v>0pc6</v>
+        <v>0tb7</v>
       </c>
       <c r="G5" t="str">
-        <v>Test Relabel</v>
+        <v>Boolean Thing</v>
       </c>
       <c r="H5" t="str">
-        <v>#️⃣</v>
+        <v>👍</v>
       </c>
       <c r="I5" t="str">
-        <v>Set a description</v>
+        <v>Orig desc</v>
       </c>
       <c r="J5" t="str">
-        <v>NUM</v>
+        <v>BOOL</v>
       </c>
       <c r="K5" t="str">
         <v>COUNT</v>
@@ -743,13 +743,13 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>lgs5e3q3-xdhk</v>
+        <v>lgs8j8g8-012r</v>
       </c>
       <c r="B6" t="str">
-        <v>2023-04-22T15:41:12.392Z</v>
+        <v>2023-04-22T17:09:10.644Z</v>
       </c>
       <c r="C6" t="str">
-        <v>lgs5e3q3</v>
+        <v>lgs8j8g8</v>
       </c>
       <c r="D6" t="b">
         <v>0</v>
@@ -758,27 +758,62 @@
         <v>ay7l</v>
       </c>
       <c r="F6" t="str">
+        <v>0pc6</v>
+      </c>
+      <c r="G6" t="str">
+        <v>Test Relabel</v>
+      </c>
+      <c r="H6" t="str">
+        <v>#️⃣</v>
+      </c>
+      <c r="I6" t="str">
+        <v>Set a description</v>
+      </c>
+      <c r="J6" t="str">
+        <v>NUM</v>
+      </c>
+      <c r="K6" t="str">
+        <v>AVERAGE</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>lgs8j8g8-npea</v>
+      </c>
+      <c r="B7" t="str">
+        <v>2023-04-22T17:09:10.644Z</v>
+      </c>
+      <c r="C7" t="str">
+        <v>lgs8j8g8</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" t="str">
+        <v>ay7l</v>
+      </c>
+      <c r="F7" t="str">
         <v>0tb7</v>
       </c>
-      <c r="G6" t="str">
+      <c r="G7" t="str">
         <v>Boolean Thing</v>
       </c>
-      <c r="H6" t="str">
+      <c r="H7" t="str">
         <v>👎</v>
       </c>
-      <c r="I6" t="str">
+      <c r="I7" t="str">
         <v>Orig desc</v>
       </c>
-      <c r="J6" t="str">
+      <c r="J7" t="str">
         <v>BOOL</v>
       </c>
-      <c r="K6" t="str">
+      <c r="K7" t="str">
         <v>COUNT</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K6"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K7"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -818,13 +853,13 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>lgs5e3pk-ust9</v>
+        <v>lgs8j8fo-0lfw</v>
       </c>
       <c r="B2" t="str">
-        <v>2023-04-22T15:41:12.392Z</v>
+        <v>2023-04-22T17:09:10.644Z</v>
       </c>
       <c r="C2" t="str">
-        <v>lgs5e3q3</v>
+        <v>lgs8j8g8</v>
       </c>
       <c r="D2" t="b">
         <v>1</v>
@@ -844,13 +879,13 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>lgs5e3pk-euus</v>
+        <v>lgs8j8fo-s0ps</v>
       </c>
       <c r="B3" t="str">
-        <v>2023-04-22T15:41:12.392Z</v>
+        <v>2023-04-22T17:09:10.644Z</v>
       </c>
       <c r="C3" t="str">
-        <v>lgs5e3pk</v>
+        <v>lgs8j8fo</v>
       </c>
       <c r="D3" t="b">
         <v>0</v>
@@ -859,10 +894,10 @@
         <v>0m7w</v>
       </c>
       <c r="F3" t="str">
-        <v>lgs5e3pv-5ph5n</v>
+        <v>lgs8j8g0-mpib</v>
       </c>
       <c r="G3" t="str">
-        <v>2023-04-22T10:41:12</v>
+        <v>2023-04-22T12:09:10</v>
       </c>
       <c r="H3" t="str">
         <v/>
@@ -870,13 +905,13 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>lgs5e3q3-0jn9</v>
+        <v>lgs8j8g8-y87o</v>
       </c>
       <c r="B4" t="str">
-        <v>2023-04-22T15:41:12.392Z</v>
+        <v>2023-04-22T17:09:10.644Z</v>
       </c>
       <c r="C4" t="str">
-        <v>lgs5e3q3</v>
+        <v>lgs8j8g8</v>
       </c>
       <c r="D4" t="b">
         <v>0</v>
@@ -936,13 +971,13 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>lgs5e3pk-00bg</v>
+        <v>lgs8j8fo-afsz</v>
       </c>
       <c r="B2" t="str">
-        <v>2023-04-22T15:41:12.392Z</v>
+        <v>2023-04-22T17:09:10.644Z</v>
       </c>
       <c r="C2" t="str">
-        <v>lgs5e3q3</v>
+        <v>lgs8j8g8</v>
       </c>
       <c r="D2" t="b">
         <v>1</v>
@@ -962,13 +997,13 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>lgs5e3pk-5gq2</v>
+        <v>lgs8j8fo-x1oi</v>
       </c>
       <c r="B3" t="str">
-        <v>2023-04-22T15:41:12.392Z</v>
+        <v>2023-04-22T17:09:10.644Z</v>
       </c>
       <c r="C3" t="str">
-        <v>lgs5e3q3</v>
+        <v>lgs8j8g8</v>
       </c>
       <c r="D3" t="b">
         <v>1</v>
@@ -988,13 +1023,13 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>lgs5e3q3-0y6e</v>
+        <v>lgs8j8g8-0eh5</v>
       </c>
       <c r="B4" t="str">
-        <v>2023-04-22T15:41:12.392Z</v>
+        <v>2023-04-22T17:09:10.644Z</v>
       </c>
       <c r="C4" t="str">
-        <v>lgs5e3q3</v>
+        <v>lgs8j8g8</v>
       </c>
       <c r="D4" t="b">
         <v>0</v>
@@ -1014,13 +1049,13 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>lgs5e3q3-065z</v>
+        <v>lgs8j8g8-u189</v>
       </c>
       <c r="B5" t="str">
-        <v>2023-04-22T15:41:12.392Z</v>
+        <v>2023-04-22T17:09:10.644Z</v>
       </c>
       <c r="C5" t="str">
-        <v>lgs5e3q3</v>
+        <v>lgs8j8g8</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
@@ -1047,7 +1082,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1071,23 +1106,97 @@
       <c r="F1" t="str">
         <v>_lbl</v>
       </c>
-      <c r="G1" t="str">
-        <v>_emoji</v>
-      </c>
-      <c r="H1" t="str">
-        <v>_desc</v>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>lgs8j8g0-063q</v>
+      </c>
+      <c r="B2" t="str">
+        <v>2023-04-22T17:09:10.656Z</v>
+      </c>
+      <c r="C2" t="str">
+        <v>lgs8j8g0</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" t="str">
+        <v>0q9d</v>
+      </c>
+      <c r="F2" t="str">
+        <v>My Tag!</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>lgs8j8g0-r9pi</v>
+      </c>
+      <c r="B3" t="str">
+        <v>2023-04-22T17:09:10.656Z</v>
+      </c>
+      <c r="C3" t="str">
+        <v>lgs8j8g8</v>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" t="str">
+        <v>vvct</v>
+      </c>
+      <c r="F3" t="str">
+        <v>Orig Tag Label</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>lgs8j8g0-83ol</v>
+      </c>
+      <c r="B4" t="str">
+        <v>2023-04-22T17:09:10.656Z</v>
+      </c>
+      <c r="C4" t="str">
+        <v>lgs8j8g0</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" t="str">
+        <v>0vvi</v>
+      </c>
+      <c r="F4" t="str">
+        <v>Select Option Test</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>lgs8j8g8-kgcz</v>
+      </c>
+      <c r="B5" t="str">
+        <v>2023-04-22T17:09:10.656Z</v>
+      </c>
+      <c r="C5" t="str">
+        <v>lgs8j8g8</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" t="str">
+        <v>vvct</v>
+      </c>
+      <c r="F5" t="str">
+        <v>New Label</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F5"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1115,9 +1224,52 @@
         <v>tid</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>lgs8j8g0-31g6</v>
+      </c>
+      <c r="B2" t="str">
+        <v>2023-04-22T17:09:10.656Z</v>
+      </c>
+      <c r="C2" t="str">
+        <v>lgs8j8g8</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" t="str">
+        <v>ay7l</v>
+      </c>
+      <c r="G2" t="str">
+        <v>vvct</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>lgs8j8g0-uq0p</v>
+      </c>
+      <c r="B3" t="str">
+        <v>2023-04-22T17:09:10.656Z</v>
+      </c>
+      <c r="C3" t="str">
+        <v>lgs8j8g0</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" t="str">
+        <v>0m7w</v>
+      </c>
+      <c r="F3" t="str">
+        <v>8esq</v>
+      </c>
+      <c r="G3" t="str">
+        <v>0vvi</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G3"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data-files/OutExcel2.xlsx
+++ b/data-files/OutExcel2.xlsx
@@ -438,13 +438,13 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>lgs8j8fo-06px</v>
+        <v>lgsauyu8-4goi</v>
       </c>
       <c r="B2" t="str">
-        <v>2023-04-22T17:09:10.644Z</v>
+        <v>2023-04-22T18:14:17.312Z</v>
       </c>
       <c r="C2" t="str">
-        <v>lgs8j8fo</v>
+        <v>lgsauyu9</v>
       </c>
       <c r="D2" t="str">
         <v>FALSE</v>
@@ -467,13 +467,13 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>lgs8j8fo-0oj7</v>
+        <v>lgsauyu9-tbmb</v>
       </c>
       <c r="B3" t="str">
-        <v>2023-04-22T17:09:10.644Z</v>
+        <v>2023-04-22T18:14:17.313Z</v>
       </c>
       <c r="C3" t="str">
-        <v>lgs8j8g8</v>
+        <v>lgsauyut</v>
       </c>
       <c r="D3" t="str">
         <v>TRUE</v>
@@ -496,13 +496,13 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>lgs8j8fo-03ay</v>
+        <v>lgsauyu9-m24n</v>
       </c>
       <c r="B4" t="str">
-        <v>2023-04-22T17:09:10.644Z</v>
+        <v>2023-04-22T18:14:17.313Z</v>
       </c>
       <c r="C4" t="str">
-        <v>lgs8j8fo</v>
+        <v>lgsauyu9</v>
       </c>
       <c r="D4" t="str">
         <v>FALSE</v>
@@ -525,13 +525,13 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>lgs8j8g8-03n9</v>
+        <v>lgsauyut-6mva</v>
       </c>
       <c r="B5" t="str">
-        <v>2023-04-22T17:09:10.644Z</v>
+        <v>2023-04-22T18:14:17.313Z</v>
       </c>
       <c r="C5" t="str">
-        <v>lgs8j8g8</v>
+        <v>lgsauyut</v>
       </c>
       <c r="D5" t="str">
         <v>FALSE</v>
@@ -603,13 +603,13 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>lgs8j8fo-pjps</v>
+        <v>lgsauyu9-09r5</v>
       </c>
       <c r="B2" t="str">
-        <v>2023-04-22T17:09:10.644Z</v>
+        <v>2023-04-22T18:14:17.313Z</v>
       </c>
       <c r="C2" t="str">
-        <v>lgs8j8fo</v>
+        <v>lgsauyu9</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
@@ -638,13 +638,13 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>lgs8j8fo-27z6i</v>
+        <v>lgsauyu9-s0u5</v>
       </c>
       <c r="B3" t="str">
-        <v>2023-04-22T17:09:10.644Z</v>
+        <v>2023-04-22T18:14:17.313Z</v>
       </c>
       <c r="C3" t="str">
-        <v>lgs8j8fo</v>
+        <v>lgsauyu9</v>
       </c>
       <c r="D3" t="b">
         <v>0</v>
@@ -653,7 +653,7 @@
         <v>05a8</v>
       </c>
       <c r="F3" t="str">
-        <v>1vb5</v>
+        <v>0ksk</v>
       </c>
       <c r="G3" t="str">
         <v>Free Item</v>
@@ -673,13 +673,13 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>lgs8j8fo-62i6</v>
+        <v>lgsauyu9-v7tg</v>
       </c>
       <c r="B4" t="str">
-        <v>2023-04-22T17:09:10.644Z</v>
+        <v>2023-04-22T18:14:17.313Z</v>
       </c>
       <c r="C4" t="str">
-        <v>lgs8j8g8</v>
+        <v>lgsauyut</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
@@ -708,13 +708,13 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>lgs8j8fo-nljl</v>
+        <v>lgsauyu9-og4k</v>
       </c>
       <c r="B5" t="str">
-        <v>2023-04-22T17:09:10.644Z</v>
+        <v>2023-04-22T18:14:17.313Z</v>
       </c>
       <c r="C5" t="str">
-        <v>lgs8j8g8</v>
+        <v>lgsauyuu</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
@@ -743,13 +743,13 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>lgs8j8g8-012r</v>
+        <v>lgsauyut-0chw</v>
       </c>
       <c r="B6" t="str">
-        <v>2023-04-22T17:09:10.644Z</v>
+        <v>2023-04-22T18:14:17.313Z</v>
       </c>
       <c r="C6" t="str">
-        <v>lgs8j8g8</v>
+        <v>lgsauyut</v>
       </c>
       <c r="D6" t="b">
         <v>0</v>
@@ -778,13 +778,13 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>lgs8j8g8-npea</v>
+        <v>lgsauyuu-xk0m</v>
       </c>
       <c r="B7" t="str">
-        <v>2023-04-22T17:09:10.644Z</v>
+        <v>2023-04-22T18:14:17.313Z</v>
       </c>
       <c r="C7" t="str">
-        <v>lgs8j8g8</v>
+        <v>lgsauyuu</v>
       </c>
       <c r="D7" t="b">
         <v>0</v>
@@ -853,13 +853,13 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>lgs8j8fo-0lfw</v>
+        <v>lgsauyu9-p2y4</v>
       </c>
       <c r="B2" t="str">
-        <v>2023-04-22T17:09:10.644Z</v>
+        <v>2023-04-22T18:14:17.313Z</v>
       </c>
       <c r="C2" t="str">
-        <v>lgs8j8g8</v>
+        <v>lgsauyuu</v>
       </c>
       <c r="D2" t="b">
         <v>1</v>
@@ -879,13 +879,13 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>lgs8j8fo-s0ps</v>
+        <v>lgsauyu9-3yeb</v>
       </c>
       <c r="B3" t="str">
-        <v>2023-04-22T17:09:10.644Z</v>
+        <v>2023-04-22T18:14:17.313Z</v>
       </c>
       <c r="C3" t="str">
-        <v>lgs8j8fo</v>
+        <v>lgsauyu9</v>
       </c>
       <c r="D3" t="b">
         <v>0</v>
@@ -894,10 +894,10 @@
         <v>0m7w</v>
       </c>
       <c r="F3" t="str">
-        <v>lgs8j8g0-mpib</v>
+        <v>lgsauyul-0g07</v>
       </c>
       <c r="G3" t="str">
-        <v>2023-04-22T12:09:10</v>
+        <v>2023-04-22T13:14:17</v>
       </c>
       <c r="H3" t="str">
         <v/>
@@ -905,13 +905,13 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>lgs8j8g8-y87o</v>
+        <v>lgsauyuu-0kts</v>
       </c>
       <c r="B4" t="str">
-        <v>2023-04-22T17:09:10.644Z</v>
+        <v>2023-04-22T18:14:17.313Z</v>
       </c>
       <c r="C4" t="str">
-        <v>lgs8j8g8</v>
+        <v>lgsauyuu</v>
       </c>
       <c r="D4" t="b">
         <v>0</v>
@@ -971,13 +971,13 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>lgs8j8fo-afsz</v>
+        <v>lgsauyu9-ydzh</v>
       </c>
       <c r="B2" t="str">
-        <v>2023-04-22T17:09:10.644Z</v>
+        <v>2023-04-22T18:14:17.313Z</v>
       </c>
       <c r="C2" t="str">
-        <v>lgs8j8g8</v>
+        <v>lgsauyuu</v>
       </c>
       <c r="D2" t="b">
         <v>1</v>
@@ -997,13 +997,13 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>lgs8j8fo-x1oi</v>
+        <v>lgsauyu9-mokn</v>
       </c>
       <c r="B3" t="str">
-        <v>2023-04-22T17:09:10.644Z</v>
+        <v>2023-04-22T18:14:17.313Z</v>
       </c>
       <c r="C3" t="str">
-        <v>lgs8j8g8</v>
+        <v>lgsauyuu</v>
       </c>
       <c r="D3" t="b">
         <v>1</v>
@@ -1023,13 +1023,13 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>lgs8j8g8-0eh5</v>
+        <v>lgsauyuu-sey4</v>
       </c>
       <c r="B4" t="str">
-        <v>2023-04-22T17:09:10.644Z</v>
+        <v>2023-04-22T18:14:17.313Z</v>
       </c>
       <c r="C4" t="str">
-        <v>lgs8j8g8</v>
+        <v>lgsauyuu</v>
       </c>
       <c r="D4" t="b">
         <v>0</v>
@@ -1049,13 +1049,13 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>lgs8j8g8-u189</v>
+        <v>lgsauyuu-uj45</v>
       </c>
       <c r="B5" t="str">
-        <v>2023-04-22T17:09:10.644Z</v>
+        <v>2023-04-22T18:14:17.313Z</v>
       </c>
       <c r="C5" t="str">
-        <v>lgs8j8g8</v>
+        <v>lgsauyuu</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
@@ -1109,19 +1109,19 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>lgs8j8g0-063q</v>
+        <v>lgsauyul-xsvg</v>
       </c>
       <c r="B2" t="str">
-        <v>2023-04-22T17:09:10.656Z</v>
+        <v>2023-04-22T18:14:17.325Z</v>
       </c>
       <c r="C2" t="str">
-        <v>lgs8j8g0</v>
+        <v>lgsauyul</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
       </c>
       <c r="E2" t="str">
-        <v>0q9d</v>
+        <v>05c2</v>
       </c>
       <c r="F2" t="str">
         <v>My Tag!</v>
@@ -1129,13 +1129,13 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>lgs8j8g0-r9pi</v>
+        <v>lgsauyul-h3kr</v>
       </c>
       <c r="B3" t="str">
-        <v>2023-04-22T17:09:10.656Z</v>
+        <v>2023-04-22T18:14:17.325Z</v>
       </c>
       <c r="C3" t="str">
-        <v>lgs8j8g8</v>
+        <v>lgsauyuu</v>
       </c>
       <c r="D3" t="b">
         <v>1</v>
@@ -1149,13 +1149,13 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>lgs8j8g0-83ol</v>
+        <v>lgsauyul-g8mm</v>
       </c>
       <c r="B4" t="str">
-        <v>2023-04-22T17:09:10.656Z</v>
+        <v>2023-04-22T18:14:17.325Z</v>
       </c>
       <c r="C4" t="str">
-        <v>lgs8j8g0</v>
+        <v>lgsauyul</v>
       </c>
       <c r="D4" t="b">
         <v>0</v>
@@ -1169,13 +1169,13 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>lgs8j8g8-kgcz</v>
+        <v>lgsauyuu-08pq</v>
       </c>
       <c r="B5" t="str">
-        <v>2023-04-22T17:09:10.656Z</v>
+        <v>2023-04-22T18:14:17.325Z</v>
       </c>
       <c r="C5" t="str">
-        <v>lgs8j8g8</v>
+        <v>lgsauyuu</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
@@ -1221,18 +1221,18 @@
         <v>_pid</v>
       </c>
       <c r="G1" t="str">
-        <v>tid</v>
+        <v>_tid</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>lgs8j8g0-31g6</v>
+        <v>lgsauyul-gzp5</v>
       </c>
       <c r="B2" t="str">
-        <v>2023-04-22T17:09:10.656Z</v>
+        <v>2023-04-22T18:14:17.325Z</v>
       </c>
       <c r="C2" t="str">
-        <v>lgs8j8g8</v>
+        <v>lgsauyuu</v>
       </c>
       <c r="D2" t="b">
         <v>1</v>
@@ -1246,13 +1246,13 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>lgs8j8g0-uq0p</v>
+        <v>lgsauyul-0jnx</v>
       </c>
       <c r="B3" t="str">
-        <v>2023-04-22T17:09:10.656Z</v>
+        <v>2023-04-22T18:14:17.325Z</v>
       </c>
       <c r="C3" t="str">
-        <v>lgs8j8g0</v>
+        <v>lgsauyul</v>
       </c>
       <c r="D3" t="b">
         <v>0</v>

--- a/data-files/OutExcel2.xlsx
+++ b/data-files/OutExcel2.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="Defs" sheetId="1" r:id="rId1"/>
-    <sheet name="Point Defs" sheetId="2" r:id="rId2"/>
-    <sheet name="Entry Base" sheetId="3" r:id="rId3"/>
-    <sheet name="Entry Points" sheetId="4" r:id="rId4"/>
-    <sheet name="Tag Defs" sheetId="5" r:id="rId5"/>
-    <sheet name="Tags" sheetId="6" r:id="rId6"/>
+    <sheet name="Overview" sheetId="1" r:id="rId1"/>
+    <sheet name="Defs" sheetId="2" r:id="rId2"/>
+    <sheet name="Point Defs" sheetId="3" r:id="rId3"/>
+    <sheet name="Entry" sheetId="4" r:id="rId4"/>
+    <sheet name="Entry Points" sheetId="5" r:id="rId5"/>
+    <sheet name="Tag Defs" sheetId="6" r:id="rId6"/>
+    <sheet name="Tags" sheetId="7" r:id="rId7"/>
   </sheets>
 </workbook>
 </file>
@@ -402,6 +403,110 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Store Name:</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>Last updated:</v>
+      </c>
+      <c r="B2" t="str">
+        <v>4/23/2023, 4:52:04 PM CDT</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>Element Type</v>
+      </c>
+      <c r="B3" t="str">
+        <v>Count Active</v>
+      </c>
+      <c r="C3" t="str">
+        <v>Count Deleted</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>defs</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>pointDefs</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>entries</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>entryPoints</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>tagDefs</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>tags</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:C9"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -438,13 +543,13 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>lgsauyu8-4goi</v>
+        <v>lgty2wgw-haft</v>
       </c>
       <c r="B2" t="str">
-        <v>2023-04-22T18:14:17.312Z</v>
+        <v>2023-04-23T21:52:04.833Z</v>
       </c>
       <c r="C2" t="str">
-        <v>lgsauyu9</v>
+        <v>lgty2wgy</v>
       </c>
       <c r="D2" t="str">
         <v>FALSE</v>
@@ -467,13 +572,13 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>lgsauyu9-tbmb</v>
+        <v>lgty2wgz-0ehk</v>
       </c>
       <c r="B3" t="str">
-        <v>2023-04-22T18:14:17.313Z</v>
+        <v>2023-04-23T21:52:04.835Z</v>
       </c>
       <c r="C3" t="str">
-        <v>lgsauyut</v>
+        <v>lgty2whc</v>
       </c>
       <c r="D3" t="str">
         <v>TRUE</v>
@@ -496,13 +601,13 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>lgsauyu9-m24n</v>
+        <v>lgty2wgz-59u8</v>
       </c>
       <c r="B4" t="str">
-        <v>2023-04-22T18:14:17.313Z</v>
+        <v>2023-04-23T21:52:04.835Z</v>
       </c>
       <c r="C4" t="str">
-        <v>lgsauyu9</v>
+        <v>lgty2wgz</v>
       </c>
       <c r="D4" t="str">
         <v>FALSE</v>
@@ -525,13 +630,13 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>lgsauyut-6mva</v>
+        <v>lgty2whb-2tqg</v>
       </c>
       <c r="B5" t="str">
-        <v>2023-04-22T18:14:17.313Z</v>
+        <v>2023-04-23T21:52:04.835Z</v>
       </c>
       <c r="C5" t="str">
-        <v>lgsauyut</v>
+        <v>lgty2whc</v>
       </c>
       <c r="D5" t="str">
         <v>FALSE</v>
@@ -559,7 +664,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K7"/>
   <sheetViews>
@@ -603,13 +708,13 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>lgsauyu9-09r5</v>
+        <v>lgty2wgy-i5kg</v>
       </c>
       <c r="B2" t="str">
-        <v>2023-04-22T18:14:17.313Z</v>
+        <v>2023-04-23T21:52:04.834Z</v>
       </c>
       <c r="C2" t="str">
-        <v>lgsauyu9</v>
+        <v>lgty2wgy</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
@@ -638,13 +743,13 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>lgsauyu9-s0u5</v>
+        <v>lgty2wgz-oasg</v>
       </c>
       <c r="B3" t="str">
-        <v>2023-04-22T18:14:17.313Z</v>
+        <v>2023-04-23T21:52:04.836Z</v>
       </c>
       <c r="C3" t="str">
-        <v>lgsauyu9</v>
+        <v>lgty2wh0</v>
       </c>
       <c r="D3" t="b">
         <v>0</v>
@@ -653,7 +758,7 @@
         <v>05a8</v>
       </c>
       <c r="F3" t="str">
-        <v>0ksk</v>
+        <v>bkpi</v>
       </c>
       <c r="G3" t="str">
         <v>Free Item</v>
@@ -673,13 +778,13 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>lgsauyu9-v7tg</v>
+        <v>lgty2wh0-iihh</v>
       </c>
       <c r="B4" t="str">
-        <v>2023-04-22T18:14:17.313Z</v>
+        <v>2023-04-23T21:52:04.836Z</v>
       </c>
       <c r="C4" t="str">
-        <v>lgsauyut</v>
+        <v>lgty2whc</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
@@ -708,13 +813,13 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>lgsauyu9-og4k</v>
+        <v>lgty2wh0-ar2a</v>
       </c>
       <c r="B5" t="str">
-        <v>2023-04-22T18:14:17.313Z</v>
+        <v>2023-04-23T21:52:04.836Z</v>
       </c>
       <c r="C5" t="str">
-        <v>lgsauyuu</v>
+        <v>lgty2whc</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
@@ -743,13 +848,13 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>lgsauyut-0chw</v>
+        <v>lgty2whc-00v5</v>
       </c>
       <c r="B6" t="str">
-        <v>2023-04-22T18:14:17.313Z</v>
+        <v>2023-04-23T21:52:04.836Z</v>
       </c>
       <c r="C6" t="str">
-        <v>lgsauyut</v>
+        <v>lgty2whc</v>
       </c>
       <c r="D6" t="b">
         <v>0</v>
@@ -778,13 +883,13 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>lgsauyuu-xk0m</v>
+        <v>lgty2whc-dtnr</v>
       </c>
       <c r="B7" t="str">
-        <v>2023-04-22T18:14:17.313Z</v>
+        <v>2023-04-23T21:52:04.836Z</v>
       </c>
       <c r="C7" t="str">
-        <v>lgsauyuu</v>
+        <v>lgty2whc</v>
       </c>
       <c r="D7" t="b">
         <v>0</v>
@@ -818,7 +923,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H4"/>
   <sheetViews>
@@ -853,13 +958,13 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>lgsauyu9-p2y4</v>
+        <v>lgty2wh0-r7mq</v>
       </c>
       <c r="B2" t="str">
-        <v>2023-04-22T18:14:17.313Z</v>
+        <v>2023-04-23T21:52:04.837Z</v>
       </c>
       <c r="C2" t="str">
-        <v>lgsauyuu</v>
+        <v>lgty2whd</v>
       </c>
       <c r="D2" t="b">
         <v>1</v>
@@ -879,13 +984,13 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>lgsauyu9-3yeb</v>
+        <v>lgty2wh2-1hjt</v>
       </c>
       <c r="B3" t="str">
-        <v>2023-04-22T18:14:17.313Z</v>
+        <v>2023-04-23T21:52:04.838Z</v>
       </c>
       <c r="C3" t="str">
-        <v>lgsauyu9</v>
+        <v>lgty2wh2</v>
       </c>
       <c r="D3" t="b">
         <v>0</v>
@@ -894,10 +999,10 @@
         <v>0m7w</v>
       </c>
       <c r="F3" t="str">
-        <v>lgsauyul-0g07</v>
+        <v>lgty2wh2-4bwbn</v>
       </c>
       <c r="G3" t="str">
-        <v>2023-04-22T13:14:17</v>
+        <v>2023-04-23T16:52:04</v>
       </c>
       <c r="H3" t="str">
         <v/>
@@ -905,13 +1010,13 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>lgsauyuu-0kts</v>
+        <v>lgty2whd-j1vn</v>
       </c>
       <c r="B4" t="str">
-        <v>2023-04-22T18:14:17.313Z</v>
+        <v>2023-04-23T21:52:04.837Z</v>
       </c>
       <c r="C4" t="str">
-        <v>lgsauyuu</v>
+        <v>lgty2whd</v>
       </c>
       <c r="D4" t="b">
         <v>0</v>
@@ -936,7 +1041,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H5"/>
   <sheetViews>
@@ -971,13 +1076,13 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>lgsauyu9-ydzh</v>
+        <v>lgty2wh1-belm</v>
       </c>
       <c r="B2" t="str">
-        <v>2023-04-22T18:14:17.313Z</v>
+        <v>2023-04-23T21:52:04.837Z</v>
       </c>
       <c r="C2" t="str">
-        <v>lgsauyuu</v>
+        <v>lgty2whd</v>
       </c>
       <c r="D2" t="b">
         <v>1</v>
@@ -997,13 +1102,13 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>lgsauyu9-mokn</v>
+        <v>lgty2wh1-pehf</v>
       </c>
       <c r="B3" t="str">
-        <v>2023-04-22T18:14:17.313Z</v>
+        <v>2023-04-23T21:52:04.837Z</v>
       </c>
       <c r="C3" t="str">
-        <v>lgsauyuu</v>
+        <v>lgty2whd</v>
       </c>
       <c r="D3" t="b">
         <v>1</v>
@@ -1023,13 +1128,13 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>lgsauyuu-sey4</v>
+        <v>lgty2whd-eaoj</v>
       </c>
       <c r="B4" t="str">
-        <v>2023-04-22T18:14:17.313Z</v>
+        <v>2023-04-23T21:52:04.837Z</v>
       </c>
       <c r="C4" t="str">
-        <v>lgsauyuu</v>
+        <v>lgty2whd</v>
       </c>
       <c r="D4" t="b">
         <v>0</v>
@@ -1049,13 +1154,13 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>lgsauyuu-uj45</v>
+        <v>lgty2whd-lww7</v>
       </c>
       <c r="B5" t="str">
-        <v>2023-04-22T18:14:17.313Z</v>
+        <v>2023-04-23T21:52:04.837Z</v>
       </c>
       <c r="C5" t="str">
-        <v>lgsauyuu</v>
+        <v>lgty2whd</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
@@ -1080,7 +1185,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F5"/>
   <sheetViews>
@@ -1109,19 +1214,19 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>lgsauyul-xsvg</v>
+        <v>lgty2wh2-0mso</v>
       </c>
       <c r="B2" t="str">
-        <v>2023-04-22T18:14:17.325Z</v>
+        <v>2023-04-23T21:52:04.838Z</v>
       </c>
       <c r="C2" t="str">
-        <v>lgsauyul</v>
+        <v>lgty2wh2</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
       </c>
       <c r="E2" t="str">
-        <v>05c2</v>
+        <v>0shj</v>
       </c>
       <c r="F2" t="str">
         <v>My Tag!</v>
@@ -1129,13 +1234,13 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>lgsauyul-h3kr</v>
+        <v>lgty2wh3-755d</v>
       </c>
       <c r="B3" t="str">
-        <v>2023-04-22T18:14:17.325Z</v>
+        <v>2023-04-23T21:52:04.839Z</v>
       </c>
       <c r="C3" t="str">
-        <v>lgsauyuu</v>
+        <v>lgty2whe</v>
       </c>
       <c r="D3" t="b">
         <v>1</v>
@@ -1149,13 +1254,13 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>lgsauyul-g8mm</v>
+        <v>lgty2wh3-tvfq</v>
       </c>
       <c r="B4" t="str">
-        <v>2023-04-22T18:14:17.325Z</v>
+        <v>2023-04-23T21:52:04.839Z</v>
       </c>
       <c r="C4" t="str">
-        <v>lgsauyul</v>
+        <v>lgty2wh3</v>
       </c>
       <c r="D4" t="b">
         <v>0</v>
@@ -1169,13 +1274,13 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>lgsauyuu-08pq</v>
+        <v>lgty2whe-yk2g</v>
       </c>
       <c r="B5" t="str">
-        <v>2023-04-22T18:14:17.325Z</v>
+        <v>2023-04-23T21:52:04.839Z</v>
       </c>
       <c r="C5" t="str">
-        <v>lgsauyuu</v>
+        <v>lgty2whe</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
@@ -1194,7 +1299,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G3"/>
   <sheetViews>
@@ -1226,13 +1331,13 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>lgsauyul-gzp5</v>
+        <v>lgty2wh3-hj8h</v>
       </c>
       <c r="B2" t="str">
-        <v>2023-04-22T18:14:17.325Z</v>
+        <v>2023-04-23T21:52:04.839Z</v>
       </c>
       <c r="C2" t="str">
-        <v>lgsauyuu</v>
+        <v>lgty2whe</v>
       </c>
       <c r="D2" t="b">
         <v>1</v>
@@ -1246,13 +1351,13 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>lgsauyul-0jnx</v>
+        <v>lgty2wh3-ub4b</v>
       </c>
       <c r="B3" t="str">
-        <v>2023-04-22T18:14:17.325Z</v>
+        <v>2023-04-23T21:52:04.839Z</v>
       </c>
       <c r="C3" t="str">
-        <v>lgsauyul</v>
+        <v>lgty2wh3</v>
       </c>
       <c r="D3" t="b">
         <v>0</v>

--- a/data-files/OutExcel2.xlsx
+++ b/data-files/OutExcel2.xlsx
@@ -418,7 +418,7 @@
         <v>Last updated:</v>
       </c>
       <c r="B2" t="str">
-        <v>4/23/2023, 4:52:04 PM CDT</v>
+        <v>4/23/2023, 6:43:04 PM CDT</v>
       </c>
     </row>
     <row r="3">
@@ -543,13 +543,13 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>lgty2wgw-haft</v>
+        <v>lgu21myt-0jj9</v>
       </c>
       <c r="B2" t="str">
-        <v>2023-04-23T21:52:04.833Z</v>
+        <v>2023-04-23T23:43:04.327Z</v>
       </c>
       <c r="C2" t="str">
-        <v>lgty2wgy</v>
+        <v>lgu21myv</v>
       </c>
       <c r="D2" t="str">
         <v>FALSE</v>
@@ -572,13 +572,13 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>lgty2wgz-0ehk</v>
+        <v>lgu21myw-2pbr</v>
       </c>
       <c r="B3" t="str">
-        <v>2023-04-23T21:52:04.835Z</v>
+        <v>2023-04-23T23:43:04.328Z</v>
       </c>
       <c r="C3" t="str">
-        <v>lgty2whc</v>
+        <v>lgu21mza</v>
       </c>
       <c r="D3" t="str">
         <v>TRUE</v>
@@ -601,13 +601,13 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>lgty2wgz-59u8</v>
+        <v>lgu21myw-qjeo</v>
       </c>
       <c r="B4" t="str">
-        <v>2023-04-23T21:52:04.835Z</v>
+        <v>2023-04-23T23:43:04.328Z</v>
       </c>
       <c r="C4" t="str">
-        <v>lgty2wgz</v>
+        <v>lgu21myx</v>
       </c>
       <c r="D4" t="str">
         <v>FALSE</v>
@@ -630,13 +630,13 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>lgty2whb-2tqg</v>
+        <v>lgu21mz9-1m8q</v>
       </c>
       <c r="B5" t="str">
-        <v>2023-04-23T21:52:04.835Z</v>
+        <v>2023-04-23T23:43:04.328Z</v>
       </c>
       <c r="C5" t="str">
-        <v>lgty2whc</v>
+        <v>lgu21mza</v>
       </c>
       <c r="D5" t="str">
         <v>FALSE</v>
@@ -708,13 +708,13 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>lgty2wgy-i5kg</v>
+        <v>lgu21myw-ln9d</v>
       </c>
       <c r="B2" t="str">
-        <v>2023-04-23T21:52:04.834Z</v>
+        <v>2023-04-23T23:43:04.328Z</v>
       </c>
       <c r="C2" t="str">
-        <v>lgty2wgy</v>
+        <v>lgu21myw</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
@@ -743,13 +743,13 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>lgty2wgz-oasg</v>
+        <v>lgu21myx-mgvr</v>
       </c>
       <c r="B3" t="str">
-        <v>2023-04-23T21:52:04.836Z</v>
+        <v>2023-04-23T23:43:04.329Z</v>
       </c>
       <c r="C3" t="str">
-        <v>lgty2wh0</v>
+        <v>lgu21myx</v>
       </c>
       <c r="D3" t="b">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>05a8</v>
       </c>
       <c r="F3" t="str">
-        <v>bkpi</v>
+        <v>0kye</v>
       </c>
       <c r="G3" t="str">
         <v>Free Item</v>
@@ -778,13 +778,13 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>lgty2wh0-iihh</v>
+        <v>lgu21myx-vpyj</v>
       </c>
       <c r="B4" t="str">
-        <v>2023-04-23T21:52:04.836Z</v>
+        <v>2023-04-23T23:43:04.329Z</v>
       </c>
       <c r="C4" t="str">
-        <v>lgty2whc</v>
+        <v>lgu21mza</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
@@ -813,13 +813,13 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>lgty2wh0-ar2a</v>
+        <v>lgu21myy-rzar</v>
       </c>
       <c r="B5" t="str">
-        <v>2023-04-23T21:52:04.836Z</v>
+        <v>2023-04-23T23:43:04.330Z</v>
       </c>
       <c r="C5" t="str">
-        <v>lgty2whc</v>
+        <v>lgu21mzb</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
@@ -848,13 +848,13 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>lgty2whc-00v5</v>
+        <v>lgu21mza-vsjr</v>
       </c>
       <c r="B6" t="str">
-        <v>2023-04-23T21:52:04.836Z</v>
+        <v>2023-04-23T23:43:04.329Z</v>
       </c>
       <c r="C6" t="str">
-        <v>lgty2whc</v>
+        <v>lgu21mza</v>
       </c>
       <c r="D6" t="b">
         <v>0</v>
@@ -883,13 +883,13 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>lgty2whc-dtnr</v>
+        <v>lgu21mzb-pd0n</v>
       </c>
       <c r="B7" t="str">
-        <v>2023-04-23T21:52:04.836Z</v>
+        <v>2023-04-23T23:43:04.330Z</v>
       </c>
       <c r="C7" t="str">
-        <v>lgty2whc</v>
+        <v>lgu21mzb</v>
       </c>
       <c r="D7" t="b">
         <v>0</v>
@@ -958,13 +958,13 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>lgty2wh0-r7mq</v>
+        <v>lgu21myy-702s</v>
       </c>
       <c r="B2" t="str">
-        <v>2023-04-23T21:52:04.837Z</v>
+        <v>2023-04-23T23:43:04.330Z</v>
       </c>
       <c r="C2" t="str">
-        <v>lgty2whd</v>
+        <v>lgu21mzc</v>
       </c>
       <c r="D2" t="b">
         <v>1</v>
@@ -984,13 +984,13 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>lgty2wh2-1hjt</v>
+        <v>lgu21myz-zvts</v>
       </c>
       <c r="B3" t="str">
-        <v>2023-04-23T21:52:04.838Z</v>
+        <v>2023-04-23T23:43:04.331Z</v>
       </c>
       <c r="C3" t="str">
-        <v>lgty2wh2</v>
+        <v>lgu21myz</v>
       </c>
       <c r="D3" t="b">
         <v>0</v>
@@ -999,10 +999,10 @@
         <v>0m7w</v>
       </c>
       <c r="F3" t="str">
-        <v>lgty2wh2-4bwbn</v>
+        <v>lgu21mz0-0h65</v>
       </c>
       <c r="G3" t="str">
-        <v>2023-04-23T16:52:04</v>
+        <v>2023-04-23T18:43:04</v>
       </c>
       <c r="H3" t="str">
         <v/>
@@ -1010,13 +1010,13 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>lgty2whd-j1vn</v>
+        <v>lgu21mzb-f9pf</v>
       </c>
       <c r="B4" t="str">
-        <v>2023-04-23T21:52:04.837Z</v>
+        <v>2023-04-23T23:43:04.330Z</v>
       </c>
       <c r="C4" t="str">
-        <v>lgty2whd</v>
+        <v>lgu21mzb</v>
       </c>
       <c r="D4" t="b">
         <v>0</v>
@@ -1076,13 +1076,13 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>lgty2wh1-belm</v>
+        <v>lgu21myz-003z</v>
       </c>
       <c r="B2" t="str">
-        <v>2023-04-23T21:52:04.837Z</v>
+        <v>2023-04-23T23:43:04.331Z</v>
       </c>
       <c r="C2" t="str">
-        <v>lgty2whd</v>
+        <v>lgu21mzc</v>
       </c>
       <c r="D2" t="b">
         <v>1</v>
@@ -1102,13 +1102,13 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>lgty2wh1-pehf</v>
+        <v>lgu21myz-j4ma</v>
       </c>
       <c r="B3" t="str">
-        <v>2023-04-23T21:52:04.837Z</v>
+        <v>2023-04-23T23:43:04.331Z</v>
       </c>
       <c r="C3" t="str">
-        <v>lgty2whd</v>
+        <v>lgu21mzc</v>
       </c>
       <c r="D3" t="b">
         <v>1</v>
@@ -1128,13 +1128,13 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>lgty2whd-eaoj</v>
+        <v>lgu21mzb-vhx3</v>
       </c>
       <c r="B4" t="str">
-        <v>2023-04-23T21:52:04.837Z</v>
+        <v>2023-04-23T23:43:04.331Z</v>
       </c>
       <c r="C4" t="str">
-        <v>lgty2whd</v>
+        <v>lgu21mzb</v>
       </c>
       <c r="D4" t="b">
         <v>0</v>
@@ -1154,13 +1154,13 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>lgty2whd-lww7</v>
+        <v>lgu21mzc-hvji</v>
       </c>
       <c r="B5" t="str">
-        <v>2023-04-23T21:52:04.837Z</v>
+        <v>2023-04-23T23:43:04.331Z</v>
       </c>
       <c r="C5" t="str">
-        <v>lgty2whd</v>
+        <v>lgu21mzc</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
@@ -1214,19 +1214,19 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>lgty2wh2-0mso</v>
+        <v>lgu21mz0-olwq</v>
       </c>
       <c r="B2" t="str">
-        <v>2023-04-23T21:52:04.838Z</v>
+        <v>2023-04-23T23:43:04.332Z</v>
       </c>
       <c r="C2" t="str">
-        <v>lgty2wh2</v>
+        <v>lgu21mz1</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
       </c>
       <c r="E2" t="str">
-        <v>0shj</v>
+        <v>fspr</v>
       </c>
       <c r="F2" t="str">
         <v>My Tag!</v>
@@ -1234,13 +1234,13 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>lgty2wh3-755d</v>
+        <v>lgu21mz1-9k6t</v>
       </c>
       <c r="B3" t="str">
-        <v>2023-04-23T21:52:04.839Z</v>
+        <v>2023-04-23T23:43:04.333Z</v>
       </c>
       <c r="C3" t="str">
-        <v>lgty2whe</v>
+        <v>lgu21mzc</v>
       </c>
       <c r="D3" t="b">
         <v>1</v>
@@ -1254,13 +1254,13 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>lgty2wh3-tvfq</v>
+        <v>lgu21mz1-0xtz</v>
       </c>
       <c r="B4" t="str">
-        <v>2023-04-23T21:52:04.839Z</v>
+        <v>2023-04-23T23:43:04.333Z</v>
       </c>
       <c r="C4" t="str">
-        <v>lgty2wh3</v>
+        <v>lgu21mz1</v>
       </c>
       <c r="D4" t="b">
         <v>0</v>
@@ -1274,13 +1274,13 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>lgty2whe-yk2g</v>
+        <v>lgu21mzc-0a76</v>
       </c>
       <c r="B5" t="str">
-        <v>2023-04-23T21:52:04.839Z</v>
+        <v>2023-04-23T23:43:04.333Z</v>
       </c>
       <c r="C5" t="str">
-        <v>lgty2whe</v>
+        <v>lgu21mzc</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
@@ -1331,13 +1331,13 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>lgty2wh3-hj8h</v>
+        <v>lgu21mz1-dp86</v>
       </c>
       <c r="B2" t="str">
-        <v>2023-04-23T21:52:04.839Z</v>
+        <v>2023-04-23T23:43:04.333Z</v>
       </c>
       <c r="C2" t="str">
-        <v>lgty2whe</v>
+        <v>lgu21mzd</v>
       </c>
       <c r="D2" t="b">
         <v>1</v>
@@ -1351,13 +1351,13 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>lgty2wh3-ub4b</v>
+        <v>lgu21mz1-0dlf</v>
       </c>
       <c r="B3" t="str">
-        <v>2023-04-23T21:52:04.839Z</v>
+        <v>2023-04-23T23:43:04.333Z</v>
       </c>
       <c r="C3" t="str">
-        <v>lgty2wh3</v>
+        <v>lgu21mz2</v>
       </c>
       <c r="D3" t="b">
         <v>0</v>

--- a/data-files/OutExcel2.xlsx
+++ b/data-files/OutExcel2.xlsx
@@ -418,7 +418,7 @@
         <v>Last updated:</v>
       </c>
       <c r="B2" t="str">
-        <v>4/23/2023, 6:43:04 PM CDT</v>
+        <v>4/24/2023, 4:39:40 PM CDT</v>
       </c>
     </row>
     <row r="3">
@@ -543,13 +543,13 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>lgu21myt-0jj9</v>
+        <v>lgvd2meq-0dvl</v>
       </c>
       <c r="B2" t="str">
-        <v>2023-04-23T23:43:04.327Z</v>
+        <v>lgvd2met</v>
       </c>
       <c r="C2" t="str">
-        <v>lgu21myv</v>
+        <v>lgvd2met</v>
       </c>
       <c r="D2" t="str">
         <v>FALSE</v>
@@ -572,13 +572,13 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>lgu21myw-2pbr</v>
+        <v>lgvd2srg-2iap</v>
       </c>
       <c r="B3" t="str">
-        <v>2023-04-23T23:43:04.328Z</v>
+        <v>lgvd2srg</v>
       </c>
       <c r="C3" t="str">
-        <v>lgu21mza</v>
+        <v>lgvd2sse</v>
       </c>
       <c r="D3" t="str">
         <v>TRUE</v>
@@ -601,13 +601,13 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>lgu21myw-qjeo</v>
+        <v>lgvd2srh-p9y5</v>
       </c>
       <c r="B4" t="str">
-        <v>2023-04-23T23:43:04.328Z</v>
+        <v>lgvd2sri</v>
       </c>
       <c r="C4" t="str">
-        <v>lgu21myx</v>
+        <v>lgvd2sri</v>
       </c>
       <c r="D4" t="str">
         <v>FALSE</v>
@@ -630,13 +630,13 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>lgu21mz9-1m8q</v>
+        <v>lgvd2ssc-lwud</v>
       </c>
       <c r="B5" t="str">
-        <v>2023-04-23T23:43:04.328Z</v>
+        <v>lgvd2srg</v>
       </c>
       <c r="C5" t="str">
-        <v>lgu21mza</v>
+        <v>lgvd2ssc</v>
       </c>
       <c r="D5" t="str">
         <v>FALSE</v>
@@ -708,16 +708,16 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>lgu21myw-ln9d</v>
+        <v>lgvd2sre-03jg</v>
       </c>
       <c r="B2" t="str">
-        <v>2023-04-23T23:43:04.328Z</v>
+        <v>lgvd2sre</v>
       </c>
       <c r="C2" t="str">
-        <v>lgu21myw</v>
-      </c>
-      <c r="D2" t="b">
-        <v>0</v>
+        <v>lgvd2srf</v>
+      </c>
+      <c r="D2" t="str">
+        <v>FALSE</v>
       </c>
       <c r="E2" t="str">
         <v>0m7w</v>
@@ -743,22 +743,22 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>lgu21myx-mgvr</v>
+        <v>lgvd2srj-0l0p</v>
       </c>
       <c r="B3" t="str">
-        <v>2023-04-23T23:43:04.329Z</v>
+        <v>lgvd2srj</v>
       </c>
       <c r="C3" t="str">
-        <v>lgu21myx</v>
-      </c>
-      <c r="D3" t="b">
-        <v>0</v>
+        <v>lgvd2srj</v>
+      </c>
+      <c r="D3" t="str">
+        <v>FALSE</v>
       </c>
       <c r="E3" t="str">
         <v>05a8</v>
       </c>
       <c r="F3" t="str">
-        <v>0kye</v>
+        <v>dste</v>
       </c>
       <c r="G3" t="str">
         <v>Free Item</v>
@@ -778,16 +778,16 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>lgu21myx-vpyj</v>
+        <v>lgvd2srk-0kv9</v>
       </c>
       <c r="B4" t="str">
-        <v>2023-04-23T23:43:04.329Z</v>
+        <v>lgvd2srk</v>
       </c>
       <c r="C4" t="str">
-        <v>lgu21mza</v>
-      </c>
-      <c r="D4" t="b">
-        <v>1</v>
+        <v>lgvd2sse</v>
+      </c>
+      <c r="D4" t="str">
+        <v>TRUE</v>
       </c>
       <c r="E4" t="str">
         <v>ay7l</v>
@@ -813,16 +813,16 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>lgu21myy-rzar</v>
+        <v>lgvd2srl-pb7n</v>
       </c>
       <c r="B5" t="str">
-        <v>2023-04-23T23:43:04.330Z</v>
+        <v>lgvd2srl</v>
       </c>
       <c r="C5" t="str">
-        <v>lgu21mzb</v>
-      </c>
-      <c r="D5" t="b">
-        <v>1</v>
+        <v>lgvd2ssf</v>
+      </c>
+      <c r="D5" t="str">
+        <v>TRUE</v>
       </c>
       <c r="E5" t="str">
         <v>ay7l</v>
@@ -848,16 +848,16 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>lgu21mza-vsjr</v>
+        <v>lgvd2ssd-g6fq</v>
       </c>
       <c r="B6" t="str">
-        <v>2023-04-23T23:43:04.329Z</v>
+        <v>lgvd2srk</v>
       </c>
       <c r="C6" t="str">
-        <v>lgu21mza</v>
-      </c>
-      <c r="D6" t="b">
-        <v>0</v>
+        <v>lgvd2ssd</v>
+      </c>
+      <c r="D6" t="str">
+        <v>FALSE</v>
       </c>
       <c r="E6" t="str">
         <v>ay7l</v>
@@ -883,16 +883,16 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>lgu21mzb-pd0n</v>
+        <v>lgvd2sse-g4qp</v>
       </c>
       <c r="B7" t="str">
-        <v>2023-04-23T23:43:04.330Z</v>
+        <v>lgvd2srl</v>
       </c>
       <c r="C7" t="str">
-        <v>lgu21mzb</v>
-      </c>
-      <c r="D7" t="b">
-        <v>0</v>
+        <v>lgvd2sse</v>
+      </c>
+      <c r="D7" t="str">
+        <v>FALSE</v>
       </c>
       <c r="E7" t="str">
         <v>ay7l</v>
@@ -958,16 +958,16 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>lgu21myy-702s</v>
+        <v>lgvd2srm-jd3o</v>
       </c>
       <c r="B2" t="str">
-        <v>2023-04-23T23:43:04.330Z</v>
+        <v>lgvd2srm</v>
       </c>
       <c r="C2" t="str">
-        <v>lgu21mzc</v>
-      </c>
-      <c r="D2" t="b">
-        <v>1</v>
+        <v>lgvd2ssg</v>
+      </c>
+      <c r="D2" t="str">
+        <v>TRUE</v>
       </c>
       <c r="E2" t="str">
         <v>ay7l</v>
@@ -984,25 +984,25 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>lgu21myz-zvts</v>
+        <v>lgvd2srp-v8mb</v>
       </c>
       <c r="B3" t="str">
-        <v>2023-04-23T23:43:04.331Z</v>
+        <v>lgvd2srp</v>
       </c>
       <c r="C3" t="str">
-        <v>lgu21myz</v>
-      </c>
-      <c r="D3" t="b">
-        <v>0</v>
+        <v>lgvd2srq</v>
+      </c>
+      <c r="D3" t="str">
+        <v>FALSE</v>
       </c>
       <c r="E3" t="str">
         <v>0m7w</v>
       </c>
       <c r="F3" t="str">
-        <v>lgu21mz0-0h65</v>
+        <v>lgvd2srr-ginp</v>
       </c>
       <c r="G3" t="str">
-        <v>2023-04-23T18:43:04</v>
+        <v>2023-04-24T16:39:40</v>
       </c>
       <c r="H3" t="str">
         <v/>
@@ -1010,16 +1010,16 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>lgu21mzb-f9pf</v>
+        <v>lgvd2ssf-0kbz</v>
       </c>
       <c r="B4" t="str">
-        <v>2023-04-23T23:43:04.330Z</v>
+        <v>lgvd2srm</v>
       </c>
       <c r="C4" t="str">
-        <v>lgu21mzb</v>
-      </c>
-      <c r="D4" t="b">
-        <v>0</v>
+        <v>lgvd2ssf</v>
+      </c>
+      <c r="D4" t="str">
+        <v>FALSE</v>
       </c>
       <c r="E4" t="str">
         <v>ay7l</v>
@@ -1076,16 +1076,16 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>lgu21myz-003z</v>
+        <v>lgvd2sro-0v1h</v>
       </c>
       <c r="B2" t="str">
-        <v>2023-04-23T23:43:04.331Z</v>
+        <v>lgvd2sro</v>
       </c>
       <c r="C2" t="str">
-        <v>lgu21mzc</v>
-      </c>
-      <c r="D2" t="b">
-        <v>1</v>
+        <v>lgvd2ssg</v>
+      </c>
+      <c r="D2" t="str">
+        <v>TRUE</v>
       </c>
       <c r="E2" t="str">
         <v>ay7l</v>
@@ -1102,16 +1102,16 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>lgu21myz-j4ma</v>
+        <v>lgvd2sro-0n8o</v>
       </c>
       <c r="B3" t="str">
-        <v>2023-04-23T23:43:04.331Z</v>
+        <v>lgvd2srp</v>
       </c>
       <c r="C3" t="str">
-        <v>lgu21mzc</v>
-      </c>
-      <c r="D3" t="b">
-        <v>1</v>
+        <v>lgvd2ssg</v>
+      </c>
+      <c r="D3" t="str">
+        <v>TRUE</v>
       </c>
       <c r="E3" t="str">
         <v>ay7l</v>
@@ -1128,16 +1128,16 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>lgu21mzb-vhx3</v>
+        <v>lgvd2ssf-6jj7</v>
       </c>
       <c r="B4" t="str">
-        <v>2023-04-23T23:43:04.331Z</v>
+        <v>lgvd2sro</v>
       </c>
       <c r="C4" t="str">
-        <v>lgu21mzb</v>
-      </c>
-      <c r="D4" t="b">
-        <v>0</v>
+        <v>lgvd2ssg</v>
+      </c>
+      <c r="D4" t="str">
+        <v>FALSE</v>
       </c>
       <c r="E4" t="str">
         <v>ay7l</v>
@@ -1154,16 +1154,16 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>lgu21mzc-hvji</v>
+        <v>lgvd2ssg-2jxg</v>
       </c>
       <c r="B5" t="str">
-        <v>2023-04-23T23:43:04.331Z</v>
+        <v>lgvd2srp</v>
       </c>
       <c r="C5" t="str">
-        <v>lgu21mzc</v>
-      </c>
-      <c r="D5" t="b">
-        <v>0</v>
+        <v>lgvd2ssg</v>
+      </c>
+      <c r="D5" t="str">
+        <v>FALSE</v>
       </c>
       <c r="E5" t="str">
         <v>ay7l</v>
@@ -1214,19 +1214,19 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>lgu21mz0-olwq</v>
+        <v>lgvd2srr-a2ma</v>
       </c>
       <c r="B2" t="str">
-        <v>2023-04-23T23:43:04.332Z</v>
+        <v>lgvd2srr</v>
       </c>
       <c r="C2" t="str">
-        <v>lgu21mz1</v>
-      </c>
-      <c r="D2" t="b">
-        <v>0</v>
+        <v>lgvd2srs</v>
+      </c>
+      <c r="D2" t="str">
+        <v>FALSE</v>
       </c>
       <c r="E2" t="str">
-        <v>fspr</v>
+        <v>0kcl</v>
       </c>
       <c r="F2" t="str">
         <v>My Tag!</v>
@@ -1234,16 +1234,16 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>lgu21mz1-9k6t</v>
+        <v>lgvd2srs-frdi</v>
       </c>
       <c r="B3" t="str">
-        <v>2023-04-23T23:43:04.333Z</v>
+        <v>lgvd2srs</v>
       </c>
       <c r="C3" t="str">
-        <v>lgu21mzc</v>
-      </c>
-      <c r="D3" t="b">
-        <v>1</v>
+        <v>lgvd2ssh</v>
+      </c>
+      <c r="D3" t="str">
+        <v>TRUE</v>
       </c>
       <c r="E3" t="str">
         <v>vvct</v>
@@ -1254,16 +1254,16 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>lgu21mz1-0xtz</v>
+        <v>lgvd2srt-0ujx</v>
       </c>
       <c r="B4" t="str">
-        <v>2023-04-23T23:43:04.333Z</v>
+        <v>lgvd2srt</v>
       </c>
       <c r="C4" t="str">
-        <v>lgu21mz1</v>
-      </c>
-      <c r="D4" t="b">
-        <v>0</v>
+        <v>lgvd2srt</v>
+      </c>
+      <c r="D4" t="str">
+        <v>FALSE</v>
       </c>
       <c r="E4" t="str">
         <v>0vvi</v>
@@ -1274,16 +1274,16 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>lgu21mzc-0a76</v>
+        <v>lgvd2ssh-0aqw</v>
       </c>
       <c r="B5" t="str">
-        <v>2023-04-23T23:43:04.333Z</v>
+        <v>lgvd2srs</v>
       </c>
       <c r="C5" t="str">
-        <v>lgu21mzc</v>
-      </c>
-      <c r="D5" t="b">
-        <v>0</v>
+        <v>lgvd2ssh</v>
+      </c>
+      <c r="D5" t="str">
+        <v>FALSE</v>
       </c>
       <c r="E5" t="str">
         <v>vvct</v>
@@ -1331,16 +1331,16 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>lgu21mz1-dp86</v>
+        <v>lgvd2srv-a6gm</v>
       </c>
       <c r="B2" t="str">
-        <v>2023-04-23T23:43:04.333Z</v>
+        <v>lgvd2srv</v>
       </c>
       <c r="C2" t="str">
-        <v>lgu21mzd</v>
-      </c>
-      <c r="D2" t="b">
-        <v>1</v>
+        <v>lgvd2ssi</v>
+      </c>
+      <c r="D2" t="str">
+        <v>TRUE</v>
       </c>
       <c r="E2" t="str">
         <v>ay7l</v>
@@ -1351,16 +1351,16 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>lgu21mz1-0dlf</v>
+        <v>lgvd2srw-301n</v>
       </c>
       <c r="B3" t="str">
-        <v>2023-04-23T23:43:04.333Z</v>
+        <v>lgvd2srw</v>
       </c>
       <c r="C3" t="str">
-        <v>lgu21mz2</v>
-      </c>
-      <c r="D3" t="b">
-        <v>0</v>
+        <v>lgvd2srw</v>
+      </c>
+      <c r="D3" t="str">
+        <v>FALSE</v>
       </c>
       <c r="E3" t="str">
         <v>0m7w</v>

--- a/data-files/OutExcel2.xlsx
+++ b/data-files/OutExcel2.xlsx
@@ -8,16 +8,14 @@
     <sheet name="Overview" sheetId="1" r:id="rId4"/>
     <sheet name="Defs" sheetId="2" r:id="rId5"/>
     <sheet name="Point Defs" sheetId="3" r:id="rId6"/>
-    <sheet name="Entry" sheetId="4" r:id="rId7"/>
-    <sheet name="Entry Points" sheetId="5" r:id="rId8"/>
-    <sheet name="Tag Defs" sheetId="6" r:id="rId9"/>
-    <sheet name="Tags" sheetId="7" r:id="rId10"/>
+    <sheet name="Tag Defs" sheetId="4" r:id="rId7"/>
+    <sheet name="Tags" sheetId="5" r:id="rId8"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="91">
   <si>
     <t>Store Name:</t>
   </si>
@@ -25,7 +23,7 @@
     <t>Last updated:</t>
   </si>
   <si>
-    <t>4/24/2023, 9:19:59 PM CDT</t>
+    <t>4/25/2023, 6:05:39 PM CDT</t>
   </si>
   <si>
     <t>Element Type</t>
@@ -82,10 +80,10 @@
     <t>_scope</t>
   </si>
   <si>
-    <t>lgvn3af5-0vhh</t>
-  </si>
-  <si>
-    <t>4/24/2023, 9:19:59 PM</t>
+    <t>lgwvl81z-gogm</t>
+  </si>
+  <si>
+    <t>4/25/2023, 6:05:39 PM</t>
   </si>
   <si>
     <t>FALSE</t>
@@ -106,7 +104,7 @@
     <t>SECOND</t>
   </si>
   <si>
-    <t>lgvn3af9-uinj</t>
+    <t>lgwvl823-wmbj</t>
   </si>
   <si>
     <t>TRUE</t>
@@ -127,7 +125,10 @@
     <t>HOUR</t>
   </si>
   <si>
-    <t>lgvn3af9-iguo</t>
+    <t>lgwvl824-44qg</t>
+  </si>
+  <si>
+    <t>4/24/2023, 8:51:59 PM</t>
   </si>
   <si>
     <t>05a8</t>
@@ -145,7 +146,7 @@
     <t>DAY</t>
   </si>
   <si>
-    <t>lgvn3afv-0ubh</t>
+    <t>lgwvl82s-0re5</t>
   </si>
   <si>
     <t>Two Relabeled</t>
@@ -160,7 +161,7 @@
     <t>_rollup</t>
   </si>
   <si>
-    <t>lgvn3af8-wrlz</t>
+    <t>lgwvl822-0x9q</t>
   </si>
   <si>
     <t>8esq</t>
@@ -181,10 +182,10 @@
     <t>COUNTOFEACH</t>
   </si>
   <si>
-    <t>lgvn3afa-3yx8</t>
-  </si>
-  <si>
-    <t>4asr</t>
+    <t>lgwvl824-76tf</t>
+  </si>
+  <si>
+    <t>nifu</t>
   </si>
   <si>
     <t>Free Item</t>
@@ -199,7 +200,7 @@
     <t>COUNT</t>
   </si>
   <si>
-    <t>lgvn3afa-0sdd</t>
+    <t>lgwvl825-vy4g</t>
   </si>
   <si>
     <t>0pc6</t>
@@ -217,7 +218,7 @@
     <t>AVERAGE</t>
   </si>
   <si>
-    <t>lgvn3afb-t5le</t>
+    <t>lgwvl826-go0m</t>
   </si>
   <si>
     <t>0tb7</t>
@@ -235,97 +236,31 @@
     <t>BOOL</t>
   </si>
   <si>
-    <t>lgvn3afw-7xqd</t>
+    <t>lgwvl82s-mbl9</t>
   </si>
   <si>
     <t>Test Relabel</t>
   </si>
   <si>
-    <t>lgvn3afx-pm4i</t>
+    <t>lgwvl82t-uc0a</t>
   </si>
   <si>
     <t>👎</t>
   </si>
   <si>
-    <t>_eid</t>
-  </si>
-  <si>
-    <t>_period</t>
-  </si>
-  <si>
-    <t>_note</t>
-  </si>
-  <si>
-    <t>_source</t>
-  </si>
-  <si>
-    <t>lgvn3afc-w7is</t>
-  </si>
-  <si>
-    <t>lgricx7k-08al</t>
-  </si>
-  <si>
-    <t>2023-04-22T06</t>
-  </si>
-  <si>
-    <t>Orig note</t>
-  </si>
-  <si>
-    <t>lgvn3afd-wyox</t>
-  </si>
-  <si>
-    <t>lgvn3afe-es8h</t>
-  </si>
-  <si>
-    <t>2023-04-24T21:19:59</t>
-  </si>
-  <si>
-    <t>lgvn3afx-0slp</t>
-  </si>
-  <si>
-    <t>Updated noted</t>
-  </si>
-  <si>
-    <t>_val</t>
-  </si>
-  <si>
-    <t>lgvn3afd-5xgh</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>lgvn3afd-jlpc</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>lgvn3afx-0jmu</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>lgvn3afy-09qa</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
     <t>_tid</t>
   </si>
   <si>
-    <t>lgvn3afe-gxwn</t>
-  </si>
-  <si>
-    <t>v0bw</t>
+    <t>lgwvl82a-05lp</t>
+  </si>
+  <si>
+    <t>0dfb</t>
   </si>
   <si>
     <t>My Tag!</t>
   </si>
   <si>
-    <t>lgvn3aff-cdea</t>
+    <t>lgwvl82a-0rcd</t>
   </si>
   <si>
     <t>vvct</t>
@@ -334,7 +269,7 @@
     <t>Orig Tag Label</t>
   </si>
   <si>
-    <t>lgvn3aff-wulj</t>
+    <t>lgwvl82b-c83p</t>
   </si>
   <si>
     <t>0vvi</t>
@@ -343,25 +278,24 @@
     <t>Select Option Test</t>
   </si>
   <si>
-    <t>lgvn3afy-0d93</t>
+    <t>lgwvl82v-rxq2</t>
   </si>
   <si>
     <t>New Label</t>
   </si>
   <si>
-    <t>lgvn3afg-758d</t>
-  </si>
-  <si>
-    <t>lgvn3afg-rluc</t>
+    <t>lgwvl82b-wmxp</t>
+  </si>
+  <si>
+    <t>lgwvl82c-015v</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="59" formatCode="m/d/yy, h:mm:ss AM/PM"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -417,7 +351,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -431,15 +365,6 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -1684,9 +1609,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="12.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="2" width="8" style="5" customWidth="1"/>
-    <col min="3" max="3" width="29.7734" style="5" customWidth="1"/>
-    <col min="4" max="9" width="8" style="5" customWidth="1"/>
+    <col min="1" max="9" width="8" style="5" customWidth="1"/>
     <col min="10" max="16384" width="8" style="5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1755,8 +1678,8 @@
       <c r="B3" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="C3" s="6">
-        <v>45038.888877314814</v>
+      <c r="C3" t="s" s="2">
+        <v>22</v>
       </c>
       <c r="D3" t="s" s="2">
         <v>30</v>
@@ -1782,7 +1705,7 @@
         <v>36</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s" s="2">
         <v>22</v>
@@ -1791,24 +1714,24 @@
         <v>23</v>
       </c>
       <c r="E4" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" ht="15.35" customHeight="1">
       <c r="A5" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s" s="2">
         <v>22</v>
@@ -1823,7 +1746,7 @@
         <v>31</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>33</v>
@@ -1910,8 +1833,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="12.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="11" width="8" style="7" customWidth="1"/>
-    <col min="12" max="16384" width="8" style="7" customWidth="1"/>
+    <col min="1" max="11" width="8" style="6" customWidth="1"/>
+    <col min="12" max="16384" width="8" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.35" customHeight="1">
@@ -1931,7 +1854,7 @@
         <v>16</v>
       </c>
       <c r="F1" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G1" t="s" s="2">
         <v>17</v>
@@ -1943,15 +1866,15 @@
         <v>19</v>
       </c>
       <c r="J1" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K1" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" ht="15.35" customHeight="1">
       <c r="A2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B2" t="s" s="2">
         <v>22</v>
@@ -1966,27 +1889,27 @@
         <v>24</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" ht="15.35" customHeight="1">
       <c r="A3" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s" s="2">
         <v>22</v>
@@ -1998,30 +1921,30 @@
         <v>23</v>
       </c>
       <c r="E3" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" ht="15.35" customHeight="1">
       <c r="A4" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B4" t="s" s="2">
         <v>22</v>
@@ -2036,27 +1959,27 @@
         <v>31</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" ht="15.35" customHeight="1">
       <c r="A5" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B5" t="s" s="2">
         <v>22</v>
@@ -2071,27 +1994,27 @@
         <v>31</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" ht="15.35" customHeight="1">
       <c r="A6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B6" t="s" s="2">
         <v>22</v>
@@ -2106,27 +2029,27 @@
         <v>31</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" ht="15.35" customHeight="1">
       <c r="A7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B7" t="s" s="2">
         <v>22</v>
@@ -2141,22 +2064,22 @@
         <v>31</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" ht="15.35" customHeight="1">
@@ -2212,14 +2135,14 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="12.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="9" width="8" style="8" customWidth="1"/>
-    <col min="10" max="16384" width="8" style="8" customWidth="1"/>
+    <col min="1" max="6" width="8" style="7" customWidth="1"/>
+    <col min="7" max="16384" width="8" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.35" customHeight="1">
@@ -2236,51 +2159,35 @@
         <v>15</v>
       </c>
       <c r="E1" t="s" s="2">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="F1" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G1" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H1" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I1" t="s" s="2">
-        <v>79</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" ht="15.35" customHeight="1">
       <c r="A2" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F2" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="B2" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="D2" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="E2" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="F2" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G2" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H2" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I2" s="3"/>
     </row>
     <row r="3" ht="15.35" customHeight="1">
       <c r="A3" t="s" s="2">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s" s="2">
         <v>22</v>
@@ -2289,23 +2196,18 @@
         <v>22</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E3" t="s" s="2">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="G3" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
+        <v>83</v>
+      </c>
     </row>
     <row r="4" ht="15.35" customHeight="1">
       <c r="A4" t="s" s="2">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B4" t="s" s="2">
         <v>22</v>
@@ -2317,29 +2219,31 @@
         <v>23</v>
       </c>
       <c r="E4" t="s" s="2">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G4" t="s" s="2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" ht="15.35" customHeight="1">
+      <c r="A5" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="H4" t="s" s="2">
+      <c r="F5" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="I4" s="3"/>
-    </row>
-    <row r="5" ht="15.35" customHeight="1">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
     </row>
     <row r="6" ht="15.35" customHeight="1">
       <c r="A6" s="3"/>
@@ -2348,9 +2252,6 @@
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
     </row>
     <row r="7" ht="15.35" customHeight="1">
       <c r="A7" s="3"/>
@@ -2359,9 +2260,6 @@
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
     </row>
     <row r="8" ht="15.35" customHeight="1">
       <c r="A8" s="3"/>
@@ -2370,9 +2268,6 @@
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
     </row>
     <row r="9" ht="15.35" customHeight="1">
       <c r="A9" s="3"/>
@@ -2381,9 +2276,6 @@
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
     </row>
     <row r="10" ht="15.35" customHeight="1">
       <c r="A10" s="3"/>
@@ -2392,9 +2284,6 @@
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
@@ -2410,14 +2299,14 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="12.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="8" width="8" style="9" customWidth="1"/>
-    <col min="9" max="16384" width="8" style="9" customWidth="1"/>
+    <col min="1" max="7" width="8" style="8" customWidth="1"/>
+    <col min="8" max="16384" width="8" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.35" customHeight="1">
@@ -2437,18 +2326,15 @@
         <v>16</v>
       </c>
       <c r="F1" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G1" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H1" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" ht="15.35" customHeight="1">
       <c r="A2" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B2" t="s" s="2">
         <v>22</v>
@@ -2462,19 +2348,14 @@
       <c r="E2" t="s" s="2">
         <v>31</v>
       </c>
-      <c r="F2" t="s" s="2">
-        <v>67</v>
-      </c>
+      <c r="F2" s="3"/>
       <c r="G2" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H2" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" ht="15.35" customHeight="1">
       <c r="A3" t="s" s="2">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B3" t="s" s="2">
         <v>22</v>
@@ -2483,72 +2364,35 @@
         <v>22</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s" s="2">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" ht="15.35" customHeight="1">
-      <c r="A4" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="E4" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="F4" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="G4" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>95</v>
-      </c>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
     </row>
     <row r="5" ht="15.35" customHeight="1">
-      <c r="A5" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="B5" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="E5" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="F5" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="G5" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>97</v>
-      </c>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
     </row>
     <row r="6" ht="15.35" customHeight="1">
       <c r="A6" s="3"/>
@@ -2558,7 +2402,6 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
     </row>
     <row r="7" ht="15.35" customHeight="1">
       <c r="A7" s="3"/>
@@ -2568,7 +2411,6 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
     </row>
     <row r="8" ht="15.35" customHeight="1">
       <c r="A8" s="3"/>
@@ -2578,7 +2420,6 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
     </row>
     <row r="9" ht="15.35" customHeight="1">
       <c r="A9" s="3"/>
@@ -2588,7 +2429,6 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
     </row>
     <row r="10" ht="15.35" customHeight="1">
       <c r="A10" s="3"/>
@@ -2598,325 +2438,6 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:F10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8" defaultRowHeight="12.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="6" width="8" style="10" customWidth="1"/>
-    <col min="7" max="16384" width="8" style="10" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="15.35" customHeight="1">
-      <c r="A1" t="s" s="2">
-        <v>12</v>
-      </c>
-      <c r="B1" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="C1" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="D1" t="s" s="2">
-        <v>15</v>
-      </c>
-      <c r="E1" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="F1" t="s" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" ht="15.35" customHeight="1">
-      <c r="A2" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="D2" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="E2" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="F2" t="s" s="2">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="3" ht="15.35" customHeight="1">
-      <c r="A3" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="C3" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="E3" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="F3" t="s" s="2">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="4" ht="15.35" customHeight="1">
-      <c r="A4" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="E4" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="F4" t="s" s="2">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="5" ht="15.35" customHeight="1">
-      <c r="A5" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="B5" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="E5" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="F5" t="s" s="2">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="6" ht="15.35" customHeight="1">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" ht="15.35" customHeight="1">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" ht="15.35" customHeight="1">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" ht="15.35" customHeight="1">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" ht="15.35" customHeight="1">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:G10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8" defaultRowHeight="12.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="7" width="8" style="11" customWidth="1"/>
-    <col min="8" max="16384" width="8" style="11" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="15.35" customHeight="1">
-      <c r="A1" t="s" s="2">
-        <v>12</v>
-      </c>
-      <c r="B1" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="C1" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="D1" t="s" s="2">
-        <v>15</v>
-      </c>
-      <c r="E1" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="F1" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="G1" t="s" s="2">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="2" ht="15.35" customHeight="1">
-      <c r="A2" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="D2" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="E2" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="F2" s="3"/>
-      <c r="G2" t="s" s="2">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="3" ht="15.35" customHeight="1">
-      <c r="A3" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="C3" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="E3" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="F3" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="G3" t="s" s="2">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="4" ht="15.35" customHeight="1">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" ht="15.35" customHeight="1">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" ht="15.35" customHeight="1">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" ht="15.35" customHeight="1">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" ht="15.35" customHeight="1">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" ht="15.35" customHeight="1">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" ht="15.35" customHeight="1">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>

--- a/data-files/OutExcel2.xlsx
+++ b/data-files/OutExcel2.xlsx
@@ -418,7 +418,7 @@
         <v>Last updated:</v>
       </c>
       <c r="B2" t="str">
-        <v>4/25/2023, 10:06:45 PM CDT</v>
+        <v>4/28/2023, 1:46:02 PM CDT</v>
       </c>
     </row>
     <row r="3">
@@ -543,13 +543,13 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>lgx47ad1-mkpc</v>
+        <v>lh0wmwkt-vnhp</v>
       </c>
       <c r="B2" t="str">
-        <v>4/25/2023, 10:06:45 PM</v>
+        <v>4/28/2023, 1:46:02 PM</v>
       </c>
       <c r="C2" t="str">
-        <v>4/25/2023, 10:06:45 PM</v>
+        <v>4/28/2023, 1:46:02 PM</v>
       </c>
       <c r="D2" t="str">
         <v>FALSE</v>
@@ -572,13 +572,13 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>lgx47ad4-0rd6</v>
+        <v>lh0wmwkx-0sbz</v>
       </c>
       <c r="B3" t="str">
-        <v>4/25/2023, 10:06:45 PM</v>
+        <v>4/28/2023, 1:46:02 PM</v>
       </c>
       <c r="C3" t="str">
-        <v>4/25/2023, 10:06:45 PM</v>
+        <v>4/28/2023, 1:46:02 PM</v>
       </c>
       <c r="D3" t="str">
         <v>TRUE</v>
@@ -601,13 +601,13 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>lgx47ad5-ukic</v>
+        <v>lh0wmwky-q0sf</v>
       </c>
       <c r="B4" t="str">
         <v>4/24/2023, 8:51:59 PM</v>
       </c>
       <c r="C4" t="str">
-        <v>4/25/2023, 10:06:45 PM</v>
+        <v>4/28/2023, 1:46:02 PM</v>
       </c>
       <c r="D4" t="str">
         <v>FALSE</v>
@@ -630,13 +630,13 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>lgx47ads-7i9a</v>
+        <v>lh0wmwlk-xg1i</v>
       </c>
       <c r="B5" t="str">
-        <v>4/25/2023, 10:06:45 PM</v>
+        <v>4/28/2023, 1:46:02 PM</v>
       </c>
       <c r="C5" t="str">
-        <v>4/25/2023, 10:06:45 PM</v>
+        <v>4/28/2023, 1:46:02 PM</v>
       </c>
       <c r="D5" t="str">
         <v>FALSE</v>
@@ -708,13 +708,13 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>lgx47ad3-ssh8</v>
+        <v>lh0wmwkw-xm25</v>
       </c>
       <c r="B2" t="str">
-        <v>4/25/2023, 10:06:45 PM</v>
+        <v>4/28/2023, 1:46:02 PM</v>
       </c>
       <c r="C2" t="str">
-        <v>4/25/2023, 10:06:45 PM</v>
+        <v>4/28/2023, 1:46:02 PM</v>
       </c>
       <c r="D2" t="str">
         <v>FALSE</v>
@@ -743,13 +743,13 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>lgx47ad5-xvt9</v>
+        <v>lh0wmwky-ckzr</v>
       </c>
       <c r="B3" t="str">
-        <v>4/25/2023, 10:06:45 PM</v>
+        <v>4/28/2023, 1:46:02 PM</v>
       </c>
       <c r="C3" t="str">
-        <v>4/25/2023, 10:06:45 PM</v>
+        <v>4/28/2023, 1:46:02 PM</v>
       </c>
       <c r="D3" t="str">
         <v>FALSE</v>
@@ -758,7 +758,7 @@
         <v>05a8</v>
       </c>
       <c r="F3" t="str">
-        <v>2wcj</v>
+        <v>0f3n</v>
       </c>
       <c r="G3" t="str">
         <v>Free Item</v>
@@ -778,13 +778,13 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>lgx47ad6-09rg</v>
+        <v>lh0wmwkz-heaj</v>
       </c>
       <c r="B4" t="str">
-        <v>4/25/2023, 10:06:45 PM</v>
+        <v>4/28/2023, 1:46:02 PM</v>
       </c>
       <c r="C4" t="str">
-        <v>4/25/2023, 10:06:45 PM</v>
+        <v>4/28/2023, 1:46:02 PM</v>
       </c>
       <c r="D4" t="str">
         <v>TRUE</v>
@@ -805,7 +805,7 @@
         <v>Set a description</v>
       </c>
       <c r="J4" t="str">
-        <v>NUM</v>
+        <v>NUMBER</v>
       </c>
       <c r="K4" t="str">
         <v>AVERAGE</v>
@@ -813,13 +813,13 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>lgx47ad6-0o8a</v>
+        <v>lh0wmwkz-iqss</v>
       </c>
       <c r="B5" t="str">
-        <v>4/25/2023, 10:06:45 PM</v>
+        <v>4/28/2023, 1:46:02 PM</v>
       </c>
       <c r="C5" t="str">
-        <v>4/25/2023, 10:06:45 PM</v>
+        <v>4/28/2023, 1:46:02 PM</v>
       </c>
       <c r="D5" t="str">
         <v>TRUE</v>
@@ -848,13 +848,13 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>lgx47ads-1e5m</v>
+        <v>lh0wmwll-7w4j</v>
       </c>
       <c r="B6" t="str">
-        <v>4/25/2023, 10:06:45 PM</v>
+        <v>4/28/2023, 1:46:02 PM</v>
       </c>
       <c r="C6" t="str">
-        <v>4/25/2023, 10:06:45 PM</v>
+        <v>4/28/2023, 1:46:02 PM</v>
       </c>
       <c r="D6" t="str">
         <v>FALSE</v>
@@ -875,7 +875,7 @@
         <v>Set a description</v>
       </c>
       <c r="J6" t="str">
-        <v>NUM</v>
+        <v>NUMBER</v>
       </c>
       <c r="K6" t="str">
         <v>AVERAGE</v>
@@ -883,13 +883,13 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>lgx47adt-cg9x</v>
+        <v>lh0wmwll-pg69</v>
       </c>
       <c r="B7" t="str">
-        <v>4/25/2023, 10:06:45 PM</v>
+        <v>4/28/2023, 1:46:02 PM</v>
       </c>
       <c r="C7" t="str">
-        <v>4/25/2023, 10:06:45 PM</v>
+        <v>4/28/2023, 1:46:02 PM</v>
       </c>
       <c r="D7" t="str">
         <v>FALSE</v>
@@ -961,13 +961,13 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>lgx47ad7-0ch3</v>
+        <v>lh0wmwl0-zqz7</v>
       </c>
       <c r="B2" t="str">
-        <v>4/25/2023, 10:06:45 PM</v>
+        <v>4/28/2023, 1:46:02 PM</v>
       </c>
       <c r="C2" t="str">
-        <v>4/25/2023, 10:06:45 PM</v>
+        <v>4/28/2023, 1:46:02 PM</v>
       </c>
       <c r="D2" t="str">
         <v>TRUE</v>
@@ -990,13 +990,13 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>lgx47ad9-0pbn</v>
+        <v>lh0wmwl1-y0d3</v>
       </c>
       <c r="B3" t="str">
-        <v>4/25/2023, 10:06:45 PM</v>
+        <v>4/28/2023, 1:46:02 PM</v>
       </c>
       <c r="C3" t="str">
-        <v>4/25/2023, 10:06:45 PM</v>
+        <v>4/28/2023, 1:46:02 PM</v>
       </c>
       <c r="D3" t="str">
         <v>FALSE</v>
@@ -1005,10 +1005,10 @@
         <v>0m7w</v>
       </c>
       <c r="F3" t="str">
-        <v>lgx47adb-xuql</v>
+        <v>lh0wmwl2-bkai</v>
       </c>
       <c r="G3" t="str">
-        <v>2023-04-25T22:06:45</v>
+        <v>2023-04-28T13:46:02</v>
       </c>
       <c r="H3" t="str">
         <v/>
@@ -1019,13 +1019,13 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>lgx47adu-5r7c</v>
+        <v>lh0wmwlm-sulo</v>
       </c>
       <c r="B4" t="str">
-        <v>4/25/2023, 10:06:45 PM</v>
+        <v>4/28/2023, 1:46:02 PM</v>
       </c>
       <c r="C4" t="str">
-        <v>4/25/2023, 10:06:45 PM</v>
+        <v>4/28/2023, 1:46:02 PM</v>
       </c>
       <c r="D4" t="str">
         <v>FALSE</v>
@@ -1088,13 +1088,13 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>lgx47ad8-4xkc</v>
+        <v>lh0wmwl1-crrp</v>
       </c>
       <c r="B2" t="str">
-        <v>4/25/2023, 10:06:45 PM</v>
+        <v>4/28/2023, 1:46:02 PM</v>
       </c>
       <c r="C2" t="str">
-        <v>4/25/2023, 10:06:45 PM</v>
+        <v>4/28/2023, 1:46:02 PM</v>
       </c>
       <c r="D2" t="str">
         <v>TRUE</v>
@@ -1114,13 +1114,13 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>lgx47ad8-8dud</v>
+        <v>lh0wmwl1-07ev</v>
       </c>
       <c r="B3" t="str">
-        <v>4/25/2023, 10:06:45 PM</v>
+        <v>4/28/2023, 1:46:02 PM</v>
       </c>
       <c r="C3" t="str">
-        <v>4/25/2023, 10:06:45 PM</v>
+        <v>4/28/2023, 1:46:02 PM</v>
       </c>
       <c r="D3" t="str">
         <v>TRUE</v>
@@ -1140,13 +1140,13 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>lgx47adu-ypyx</v>
+        <v>lh0wmwlm-84du</v>
       </c>
       <c r="B4" t="str">
-        <v>4/25/2023, 10:06:45 PM</v>
+        <v>4/28/2023, 1:46:02 PM</v>
       </c>
       <c r="C4" t="str">
-        <v>4/25/2023, 10:06:45 PM</v>
+        <v>4/28/2023, 1:46:02 PM</v>
       </c>
       <c r="D4" t="str">
         <v>FALSE</v>
@@ -1166,13 +1166,13 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>lgx47adv-ind8</v>
+        <v>lh0wmwln-580r</v>
       </c>
       <c r="B5" t="str">
-        <v>4/25/2023, 10:06:45 PM</v>
+        <v>4/28/2023, 1:46:02 PM</v>
       </c>
       <c r="C5" t="str">
-        <v>4/25/2023, 10:06:45 PM</v>
+        <v>4/28/2023, 1:46:02 PM</v>
       </c>
       <c r="D5" t="str">
         <v>FALSE</v>
@@ -1226,19 +1226,19 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>lgx47adb-l2b1</v>
+        <v>lh0wmwl2-036u</v>
       </c>
       <c r="B2" t="str">
-        <v>4/25/2023, 10:06:45 PM</v>
+        <v>4/28/2023, 1:46:02 PM</v>
       </c>
       <c r="C2" t="str">
-        <v>4/25/2023, 10:06:45 PM</v>
+        <v>4/28/2023, 1:46:02 PM</v>
       </c>
       <c r="D2" t="str">
         <v>FALSE</v>
       </c>
       <c r="E2" t="str">
-        <v>6775</v>
+        <v>plp7</v>
       </c>
       <c r="F2" t="str">
         <v>My Tag!</v>
@@ -1246,13 +1246,13 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>lgx47adb-ollf</v>
+        <v>lh0wmwl3-6xxo</v>
       </c>
       <c r="B3" t="str">
-        <v>4/25/2023, 10:06:45 PM</v>
+        <v>4/28/2023, 1:46:02 PM</v>
       </c>
       <c r="C3" t="str">
-        <v>4/25/2023, 10:06:45 PM</v>
+        <v>4/28/2023, 1:46:02 PM</v>
       </c>
       <c r="D3" t="str">
         <v>TRUE</v>
@@ -1266,13 +1266,13 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>lgx47adc-pw76</v>
+        <v>lh0wmwl4-0bew</v>
       </c>
       <c r="B4" t="str">
-        <v>4/25/2023, 10:06:45 PM</v>
+        <v>4/28/2023, 1:46:02 PM</v>
       </c>
       <c r="C4" t="str">
-        <v>4/25/2023, 10:06:45 PM</v>
+        <v>4/28/2023, 1:46:02 PM</v>
       </c>
       <c r="D4" t="str">
         <v>FALSE</v>
@@ -1286,13 +1286,13 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>lgx47adv-2n99</v>
+        <v>lh0wmwln-0qmh</v>
       </c>
       <c r="B5" t="str">
-        <v>4/25/2023, 10:06:45 PM</v>
+        <v>4/28/2023, 1:46:02 PM</v>
       </c>
       <c r="C5" t="str">
-        <v>4/25/2023, 10:06:45 PM</v>
+        <v>4/28/2023, 1:46:02 PM</v>
       </c>
       <c r="D5" t="str">
         <v>FALSE</v>
@@ -1343,13 +1343,13 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>lgx47adc-svsr</v>
+        <v>lh0wmwl4-1lqh</v>
       </c>
       <c r="B2" t="str">
-        <v>4/25/2023, 10:06:45 PM</v>
+        <v>4/28/2023, 1:46:02 PM</v>
       </c>
       <c r="C2" t="str">
-        <v>4/25/2023, 10:06:45 PM</v>
+        <v>4/28/2023, 1:46:02 PM</v>
       </c>
       <c r="D2" t="str">
         <v>TRUE</v>
@@ -1363,13 +1363,13 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>lgx47add-vqm8</v>
+        <v>lh0wmwl5-0l5y</v>
       </c>
       <c r="B3" t="str">
-        <v>4/25/2023, 10:06:45 PM</v>
+        <v>4/28/2023, 1:46:02 PM</v>
       </c>
       <c r="C3" t="str">
-        <v>4/25/2023, 10:06:45 PM</v>
+        <v>4/28/2023, 1:46:02 PM</v>
       </c>
       <c r="D3" t="str">
         <v>TRUE</v>

--- a/data-files/OutExcel2.xlsx
+++ b/data-files/OutExcel2.xlsx
@@ -418,7 +418,7 @@
         <v>Last updated:</v>
       </c>
       <c r="B2" t="str">
-        <v>4/28/2023, 1:46:02 PM CDT</v>
+        <v>4/29/2023, 10:51:24 PM CDT</v>
       </c>
     </row>
     <row r="3">
@@ -481,7 +481,7 @@
         <v>tagDefs</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -492,7 +492,7 @@
         <v>tags</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -543,13 +543,13 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>lh0wmwkt-vnhp</v>
+        <v>lh2vk0q0-0db6</v>
       </c>
       <c r="B2" t="str">
-        <v>4/28/2023, 1:46:02 PM</v>
+        <v>4/29/2023, 10:51:20 PM</v>
       </c>
       <c r="C2" t="str">
-        <v>4/28/2023, 1:46:02 PM</v>
+        <v>4/29/2023, 10:51:20 PM</v>
       </c>
       <c r="D2" t="str">
         <v>FALSE</v>
@@ -572,13 +572,13 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>lh0wmwkx-0sbz</v>
+        <v>lh2vk0q3-0dtj</v>
       </c>
       <c r="B3" t="str">
-        <v>4/28/2023, 1:46:02 PM</v>
+        <v>4/29/2023, 10:51:20 PM</v>
       </c>
       <c r="C3" t="str">
-        <v>4/28/2023, 1:46:02 PM</v>
+        <v>4/29/2023, 10:51:24 PM</v>
       </c>
       <c r="D3" t="str">
         <v>TRUE</v>
@@ -601,13 +601,13 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>lh0wmwky-q0sf</v>
+        <v>lh2vk0q4-0a06</v>
       </c>
       <c r="B4" t="str">
         <v>4/24/2023, 8:51:59 PM</v>
       </c>
       <c r="C4" t="str">
-        <v>4/28/2023, 1:46:02 PM</v>
+        <v>4/29/2023, 10:51:20 PM</v>
       </c>
       <c r="D4" t="str">
         <v>FALSE</v>
@@ -630,13 +630,13 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>lh0wmwlk-xg1i</v>
+        <v>lh2vk3zj-m9d6</v>
       </c>
       <c r="B5" t="str">
-        <v>4/28/2023, 1:46:02 PM</v>
+        <v>4/29/2023, 10:51:20 PM</v>
       </c>
       <c r="C5" t="str">
-        <v>4/28/2023, 1:46:02 PM</v>
+        <v>4/29/2023, 10:51:24 PM</v>
       </c>
       <c r="D5" t="str">
         <v>FALSE</v>
@@ -708,13 +708,13 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>lh0wmwkw-xm25</v>
+        <v>lh2vk0q2-ojke</v>
       </c>
       <c r="B2" t="str">
-        <v>4/28/2023, 1:46:02 PM</v>
+        <v>4/29/2023, 10:51:20 PM</v>
       </c>
       <c r="C2" t="str">
-        <v>4/28/2023, 1:46:02 PM</v>
+        <v>4/29/2023, 10:51:20 PM</v>
       </c>
       <c r="D2" t="str">
         <v>FALSE</v>
@@ -743,13 +743,13 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>lh0wmwky-ckzr</v>
+        <v>lh2vk0q4-0o48</v>
       </c>
       <c r="B3" t="str">
-        <v>4/28/2023, 1:46:02 PM</v>
+        <v>4/29/2023, 10:51:20 PM</v>
       </c>
       <c r="C3" t="str">
-        <v>4/28/2023, 1:46:02 PM</v>
+        <v>4/29/2023, 10:51:20 PM</v>
       </c>
       <c r="D3" t="str">
         <v>FALSE</v>
@@ -758,7 +758,7 @@
         <v>05a8</v>
       </c>
       <c r="F3" t="str">
-        <v>0f3n</v>
+        <v>0iu2</v>
       </c>
       <c r="G3" t="str">
         <v>Free Item</v>
@@ -778,13 +778,13 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>lh0wmwkz-heaj</v>
+        <v>lh2vk0q5-klza</v>
       </c>
       <c r="B4" t="str">
-        <v>4/28/2023, 1:46:02 PM</v>
+        <v>4/29/2023, 10:51:20 PM</v>
       </c>
       <c r="C4" t="str">
-        <v>4/28/2023, 1:46:02 PM</v>
+        <v>4/29/2023, 10:51:24 PM</v>
       </c>
       <c r="D4" t="str">
         <v>TRUE</v>
@@ -813,13 +813,13 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>lh0wmwkz-iqss</v>
+        <v>lh2vk0q5-1wpj</v>
       </c>
       <c r="B5" t="str">
-        <v>4/28/2023, 1:46:02 PM</v>
+        <v>4/29/2023, 10:51:20 PM</v>
       </c>
       <c r="C5" t="str">
-        <v>4/28/2023, 1:46:02 PM</v>
+        <v>4/29/2023, 10:51:24 PM</v>
       </c>
       <c r="D5" t="str">
         <v>TRUE</v>
@@ -848,13 +848,13 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>lh0wmwll-7w4j</v>
+        <v>lh2vk3zk-dywe</v>
       </c>
       <c r="B6" t="str">
-        <v>4/28/2023, 1:46:02 PM</v>
+        <v>4/29/2023, 10:51:20 PM</v>
       </c>
       <c r="C6" t="str">
-        <v>4/28/2023, 1:46:02 PM</v>
+        <v>4/29/2023, 10:51:24 PM</v>
       </c>
       <c r="D6" t="str">
         <v>FALSE</v>
@@ -883,13 +883,13 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>lh0wmwll-pg69</v>
+        <v>lh2vk3zl-r928</v>
       </c>
       <c r="B7" t="str">
-        <v>4/28/2023, 1:46:02 PM</v>
+        <v>4/29/2023, 10:51:20 PM</v>
       </c>
       <c r="C7" t="str">
-        <v>4/28/2023, 1:46:02 PM</v>
+        <v>4/29/2023, 10:51:24 PM</v>
       </c>
       <c r="D7" t="str">
         <v>FALSE</v>
@@ -961,13 +961,13 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>lh0wmwl0-zqz7</v>
+        <v>lh2vk0q6-0m06</v>
       </c>
       <c r="B2" t="str">
-        <v>4/28/2023, 1:46:02 PM</v>
+        <v>4/29/2023, 10:51:20 PM</v>
       </c>
       <c r="C2" t="str">
-        <v>4/28/2023, 1:46:02 PM</v>
+        <v>4/29/2023, 10:51:24 PM</v>
       </c>
       <c r="D2" t="str">
         <v>TRUE</v>
@@ -990,13 +990,13 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>lh0wmwl1-y0d3</v>
+        <v>lh2vk0q7-0kef</v>
       </c>
       <c r="B3" t="str">
-        <v>4/28/2023, 1:46:02 PM</v>
+        <v>4/29/2023, 10:51:20 PM</v>
       </c>
       <c r="C3" t="str">
-        <v>4/28/2023, 1:46:02 PM</v>
+        <v>4/29/2023, 10:51:20 PM</v>
       </c>
       <c r="D3" t="str">
         <v>FALSE</v>
@@ -1005,10 +1005,10 @@
         <v>0m7w</v>
       </c>
       <c r="F3" t="str">
-        <v>lh0wmwl2-bkai</v>
+        <v>lh2vk0q8-3am6</v>
       </c>
       <c r="G3" t="str">
-        <v>2023-04-28T13:46:02</v>
+        <v>2023-04-29T22:51:20</v>
       </c>
       <c r="H3" t="str">
         <v/>
@@ -1019,13 +1019,13 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>lh0wmwlm-sulo</v>
+        <v>lh2vk3zm-097s</v>
       </c>
       <c r="B4" t="str">
-        <v>4/28/2023, 1:46:02 PM</v>
+        <v>4/29/2023, 10:51:20 PM</v>
       </c>
       <c r="C4" t="str">
-        <v>4/28/2023, 1:46:02 PM</v>
+        <v>4/29/2023, 10:51:24 PM</v>
       </c>
       <c r="D4" t="str">
         <v>FALSE</v>
@@ -1088,13 +1088,13 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>lh0wmwl1-crrp</v>
+        <v>lh2vk0q6-idb9</v>
       </c>
       <c r="B2" t="str">
-        <v>4/28/2023, 1:46:02 PM</v>
+        <v>4/29/2023, 10:51:20 PM</v>
       </c>
       <c r="C2" t="str">
-        <v>4/28/2023, 1:46:02 PM</v>
+        <v>4/29/2023, 10:51:24 PM</v>
       </c>
       <c r="D2" t="str">
         <v>TRUE</v>
@@ -1114,13 +1114,13 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>lh0wmwl1-07ev</v>
+        <v>lh2vk0q7-r0s5</v>
       </c>
       <c r="B3" t="str">
-        <v>4/28/2023, 1:46:02 PM</v>
+        <v>4/29/2023, 10:51:20 PM</v>
       </c>
       <c r="C3" t="str">
-        <v>4/28/2023, 1:46:02 PM</v>
+        <v>4/29/2023, 10:51:24 PM</v>
       </c>
       <c r="D3" t="str">
         <v>TRUE</v>
@@ -1140,13 +1140,13 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>lh0wmwlm-84du</v>
+        <v>lh2vk3zo-pwh7</v>
       </c>
       <c r="B4" t="str">
-        <v>4/28/2023, 1:46:02 PM</v>
+        <v>4/29/2023, 10:51:20 PM</v>
       </c>
       <c r="C4" t="str">
-        <v>4/28/2023, 1:46:02 PM</v>
+        <v>4/29/2023, 10:51:24 PM</v>
       </c>
       <c r="D4" t="str">
         <v>FALSE</v>
@@ -1166,13 +1166,13 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>lh0wmwln-580r</v>
+        <v>lh2vk3zp-0p2f</v>
       </c>
       <c r="B5" t="str">
-        <v>4/28/2023, 1:46:02 PM</v>
+        <v>4/29/2023, 10:51:20 PM</v>
       </c>
       <c r="C5" t="str">
-        <v>4/28/2023, 1:46:02 PM</v>
+        <v>4/29/2023, 10:51:24 PM</v>
       </c>
       <c r="D5" t="str">
         <v>FALSE</v>
@@ -1199,7 +1199,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1226,19 +1226,19 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>lh0wmwl2-036u</v>
+        <v>lh2vk0q9-0iha</v>
       </c>
       <c r="B2" t="str">
-        <v>4/28/2023, 1:46:02 PM</v>
+        <v>4/29/2023, 10:51:20 PM</v>
       </c>
       <c r="C2" t="str">
-        <v>4/28/2023, 1:46:02 PM</v>
+        <v>4/29/2023, 10:51:20 PM</v>
       </c>
       <c r="D2" t="str">
         <v>FALSE</v>
       </c>
       <c r="E2" t="str">
-        <v>plp7</v>
+        <v>0x2q</v>
       </c>
       <c r="F2" t="str">
         <v>My Tag!</v>
@@ -1246,13 +1246,13 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>lh0wmwl3-6xxo</v>
+        <v>lh2vk0q9-5k8p</v>
       </c>
       <c r="B3" t="str">
-        <v>4/28/2023, 1:46:02 PM</v>
+        <v>4/29/2023, 10:51:20 PM</v>
       </c>
       <c r="C3" t="str">
-        <v>4/28/2023, 1:46:02 PM</v>
+        <v>4/29/2023, 10:51:24 PM</v>
       </c>
       <c r="D3" t="str">
         <v>TRUE</v>
@@ -1266,13 +1266,13 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>lh0wmwl4-0bew</v>
+        <v>lh2vk0qa-qbib</v>
       </c>
       <c r="B4" t="str">
-        <v>4/28/2023, 1:46:02 PM</v>
+        <v>4/29/2023, 10:51:20 PM</v>
       </c>
       <c r="C4" t="str">
-        <v>4/28/2023, 1:46:02 PM</v>
+        <v>4/29/2023, 10:51:20 PM</v>
       </c>
       <c r="D4" t="str">
         <v>FALSE</v>
@@ -1281,39 +1281,79 @@
         <v>0vvi</v>
       </c>
       <c r="F4" t="str">
-        <v>Select Option Test</v>
+        <v>Select Option To Delete</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>lh0wmwln-0qmh</v>
+        <v>lh2vk0qa-4x8q</v>
       </c>
       <c r="B5" t="str">
-        <v>4/28/2023, 1:46:02 PM</v>
+        <v>4/29/2023, 10:51:20 PM</v>
       </c>
       <c r="C5" t="str">
-        <v>4/28/2023, 1:46:02 PM</v>
+        <v>4/29/2023, 10:51:20 PM</v>
       </c>
       <c r="D5" t="str">
         <v>FALSE</v>
       </c>
       <c r="E5" t="str">
+        <v>0vva</v>
+      </c>
+      <c r="F5" t="str">
+        <v>Select Option 1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>lh2vk0qb-gn9e</v>
+      </c>
+      <c r="B6" t="str">
+        <v>4/29/2023, 10:51:20 PM</v>
+      </c>
+      <c r="C6" t="str">
+        <v>4/29/2023, 10:51:20 PM</v>
+      </c>
+      <c r="D6" t="str">
+        <v>FALSE</v>
+      </c>
+      <c r="E6" t="str">
+        <v>0vvb</v>
+      </c>
+      <c r="F6" t="str">
+        <v>Select Option 2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>lh2vk3zq-j8yj</v>
+      </c>
+      <c r="B7" t="str">
+        <v>4/29/2023, 10:51:20 PM</v>
+      </c>
+      <c r="C7" t="str">
+        <v>4/29/2023, 10:51:24 PM</v>
+      </c>
+      <c r="D7" t="str">
+        <v>FALSE</v>
+      </c>
+      <c r="E7" t="str">
         <v>vvct</v>
       </c>
-      <c r="F5" t="str">
+      <c r="F7" t="str">
         <v>New Label</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F7"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1343,13 +1383,13 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>lh0wmwl4-1lqh</v>
+        <v>lh2vk0qb-bq3o</v>
       </c>
       <c r="B2" t="str">
-        <v>4/28/2023, 1:46:02 PM</v>
+        <v>4/29/2023, 10:51:20 PM</v>
       </c>
       <c r="C2" t="str">
-        <v>4/28/2023, 1:46:02 PM</v>
+        <v>4/29/2023, 10:51:24 PM</v>
       </c>
       <c r="D2" t="str">
         <v>TRUE</v>
@@ -1363,13 +1403,13 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>lh0wmwl5-0l5y</v>
+        <v>lh2vk0qc-98am</v>
       </c>
       <c r="B3" t="str">
-        <v>4/28/2023, 1:46:02 PM</v>
+        <v>4/29/2023, 10:51:20 PM</v>
       </c>
       <c r="C3" t="str">
-        <v>4/28/2023, 1:46:02 PM</v>
+        <v>4/29/2023, 10:51:24 PM</v>
       </c>
       <c r="D3" t="str">
         <v>TRUE</v>
@@ -1384,9 +1424,55 @@
         <v>0vvi</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>lh2vk0qc-qss9</v>
+      </c>
+      <c r="B4" t="str">
+        <v>4/29/2023, 10:51:20 PM</v>
+      </c>
+      <c r="C4" t="str">
+        <v>4/29/2023, 10:51:20 PM</v>
+      </c>
+      <c r="D4" t="str">
+        <v>FALSE</v>
+      </c>
+      <c r="E4" t="str">
+        <v>0m7w</v>
+      </c>
+      <c r="F4" t="str">
+        <v>8esq</v>
+      </c>
+      <c r="G4" t="str">
+        <v>0vva</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>lh2vk0qd-95rs</v>
+      </c>
+      <c r="B5" t="str">
+        <v>4/29/2023, 10:51:20 PM</v>
+      </c>
+      <c r="C5" t="str">
+        <v>4/29/2023, 10:51:20 PM</v>
+      </c>
+      <c r="D5" t="str">
+        <v>FALSE</v>
+      </c>
+      <c r="E5" t="str">
+        <v>0m7w</v>
+      </c>
+      <c r="F5" t="str">
+        <v>8esq</v>
+      </c>
+      <c r="G5" t="str">
+        <v>0vvb</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G5"/>
   </ignoredErrors>
 </worksheet>
 </file>